--- a/tool/table/table/skill.xlsx
+++ b/tool/table/table/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodger\Documents\GitHub\lolita_son\lolita_son\tool\table\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E79A3394-98CB-4B5E-B080-B73F4FE07D69}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D51A206-BA4E-4391-A844-F0B76CD960EE}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -168,7 +168,7 @@
     <author>al</author>
   </authors>
   <commentList>
-    <comment ref="N9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
+    <comment ref="L9" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000004000000}">
       <text>
         <r>
           <rPr>
@@ -237,7 +237,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
+    <comment ref="H10" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000005000000}">
       <text>
         <r>
           <rPr>
@@ -5988,7 +5988,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1553" uniqueCount="1247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1545" uniqueCount="1243">
   <si>
     <t>buff和效果规则</t>
   </si>
@@ -10675,40 +10675,6 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>time@string</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>p</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>rate@int</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
     <t>count@int</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
@@ -10750,16 +10716,60 @@
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>ptime@string</t>
+    <t>key@string</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>prate@int</t>
+    <t>desc@string</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
+    <t>计算目标身上是否有被伤害时触发的效果，如果有，触发结算效果</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>cryout@int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>refresh@int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>rate@int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>data#32[lv@int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>加血</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>伤害</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击增加</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffdata#6[buff@int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>无</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>effdst@int</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
     <r>
-      <t>data#4[</t>
+      <t>data#</t>
     </r>
     <r>
       <rPr>
@@ -10770,7 +10780,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>p</t>
+      <t>2</t>
     </r>
     <r>
       <rPr>
@@ -10781,7 +10791,7 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>rop</t>
+      <t>[</t>
     </r>
     <r>
       <rPr>
@@ -10792,81 +10802,16 @@
         <family val="3"/>
         <charset val="134"/>
       </rPr>
-      <t>@string</t>
+      <t>prop@string</t>
     </r>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>key@string</t>
+    <t>data#8[lv@int</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
   <si>
-    <t>desc@string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>计算目标身上是否有被伤害时触发的效果，如果有，触发结算效果</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>cryout@int</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>d</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="12"/>
-        <color theme="10"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
-        <charset val="134"/>
-      </rPr>
-      <t>ata#10[lv@int</t>
-    </r>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>refresh@int</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>rate@int</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>data#32[lv@int</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>加血</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击增加</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffdata#6[buff@int</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>propdata#9[prop@string</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>无</t>
-    <phoneticPr fontId="7" type="noConversion"/>
-  </si>
-  <si>
-    <t>effdst@int</t>
+    <t>propdata#7[prop@string</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -11225,7 +11170,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -11413,9 +11358,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="1" xfId="8" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="1" xfId="8" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -11954,7 +11896,7 @@
   <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
       <selection pane="bottomRight" activeCell="Z4" sqref="Z4"/>
@@ -12122,7 +12064,7 @@
         <v>1177</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>1239</v>
+        <v>1233</v>
       </c>
       <c r="F2" s="56" t="s">
         <v>1178</v>
@@ -12170,7 +12112,7 @@
         <v>1192</v>
       </c>
       <c r="U2" s="56" t="s">
-        <v>1238</v>
+        <v>1232</v>
       </c>
       <c r="V2" s="56" t="s">
         <v>1193</v>
@@ -12200,7 +12142,7 @@
         <v>1199</v>
       </c>
       <c r="AE2" s="56" t="s">
-        <v>1243</v>
+        <v>1237</v>
       </c>
       <c r="AF2" s="56" t="s">
         <v>1200</v>
@@ -12267,10 +12209,10 @@
         <v>100</v>
       </c>
       <c r="Z3" s="36" t="s">
-        <v>1240</v>
+        <v>1234</v>
       </c>
       <c r="AA3" s="36" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="AB3" s="36"/>
       <c r="AC3" s="36"/>
@@ -12321,17 +12263,17 @@
         <v>100</v>
       </c>
       <c r="Z4" s="36" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="AA4" s="36"/>
       <c r="AB4" s="36"/>
       <c r="AC4" s="36"/>
       <c r="AD4" s="49"/>
       <c r="AE4" s="36" t="s">
-        <v>1242</v>
+        <v>1236</v>
       </c>
       <c r="AF4" s="36" t="s">
-        <v>1241</v>
+        <v>1235</v>
       </c>
       <c r="AH4" s="36"/>
       <c r="AI4" s="51"/>
@@ -14660,13 +14602,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:P18"/>
+  <dimension ref="A1:N18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="1" topLeftCell="F2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="M2" sqref="M2"/>
+      <selection pane="bottomRight" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -14676,19 +14618,19 @@
     <col min="3" max="3" width="8.5" style="13" customWidth="1"/>
     <col min="4" max="4" width="13.875" style="13" customWidth="1"/>
     <col min="5" max="5" width="9" style="4"/>
-    <col min="6" max="9" width="13.875" style="13" customWidth="1"/>
-    <col min="10" max="10" width="15.25" style="13" customWidth="1"/>
-    <col min="11" max="11" width="10.5" style="13" customWidth="1"/>
-    <col min="12" max="12" width="10.5" style="4" customWidth="1"/>
-    <col min="13" max="13" width="9.75" style="13" customWidth="1"/>
-    <col min="14" max="14" width="14.625" style="39" customWidth="1"/>
-    <col min="15" max="15" width="10.5" style="4" customWidth="1"/>
-    <col min="16" max="33" width="9" style="4"/>
-    <col min="34" max="34" width="12" style="4" customWidth="1"/>
-    <col min="35" max="16384" width="9" style="4"/>
+    <col min="6" max="7" width="13.875" style="13" customWidth="1"/>
+    <col min="8" max="8" width="15.25" style="13" customWidth="1"/>
+    <col min="9" max="9" width="10.5" style="13" customWidth="1"/>
+    <col min="10" max="10" width="10.5" style="4" customWidth="1"/>
+    <col min="11" max="11" width="9.75" style="13" customWidth="1"/>
+    <col min="12" max="12" width="14.625" style="39" customWidth="1"/>
+    <col min="13" max="13" width="10.5" style="4" customWidth="1"/>
+    <col min="14" max="31" width="9" style="4"/>
+    <col min="32" max="32" width="12" style="4" customWidth="1"/>
+    <col min="33" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" s="38" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" s="38" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>202</v>
       </c>
@@ -14711,29 +14653,23 @@
         <v>1218</v>
       </c>
       <c r="H1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>1099</v>
       </c>
-      <c r="I1" s="1" t="s">
-        <v>1206</v>
-      </c>
       <c r="J1" s="1" t="s">
-        <v>204</v>
+        <v>457</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>457</v>
-      </c>
-      <c r="M1" s="1" t="s">
         <v>1095</v>
       </c>
-      <c r="N1" s="40" t="s">
+      <c r="L1" s="40" t="s">
         <v>1100</v>
       </c>
-      <c r="O1" s="1"/>
-    </row>
-    <row r="2" spans="1:16" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
+      <c r="M1" s="1"/>
+    </row>
+    <row r="2" spans="1:14" s="38" customFormat="1" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A2" s="56" t="s">
         <v>1174</v>
       </c>
@@ -14744,41 +14680,35 @@
         <v>1209</v>
       </c>
       <c r="D2" s="56" t="s">
-        <v>1235</v>
+        <v>1230</v>
       </c>
       <c r="E2" s="56" t="s">
-        <v>1236</v>
+        <v>1241</v>
       </c>
       <c r="F2" s="56" t="s">
-        <v>1244</v>
+        <v>1242</v>
       </c>
       <c r="G2" s="56" t="s">
         <v>1219</v>
       </c>
-      <c r="H2" s="56" t="s">
-        <v>1220</v>
+      <c r="H2" s="1" t="s">
+        <v>1210</v>
       </c>
       <c r="I2" s="56" t="s">
-        <v>1221</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>1210</v>
+        <v>1197</v>
+      </c>
+      <c r="J2" s="56" t="s">
+        <v>1211</v>
       </c>
       <c r="K2" s="56" t="s">
-        <v>1197</v>
-      </c>
-      <c r="L2" s="56" t="s">
-        <v>1211</v>
-      </c>
-      <c r="M2" s="56" t="s">
-        <v>1246</v>
-      </c>
-      <c r="N2" s="59" t="s">
+        <v>1239</v>
+      </c>
+      <c r="L2" s="59" t="s">
         <v>1199</v>
       </c>
-      <c r="O2" s="1"/>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M2" s="1"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>101</v>
       </c>
@@ -14792,53 +14722,53 @@
         <v>1</v>
       </c>
       <c r="F3" s="13" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J3" s="13" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H3" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="L3" s="4">
+      <c r="J3" s="4">
         <v>45</v>
       </c>
-      <c r="M3" s="13">
+      <c r="K3" s="13">
         <v>1</v>
       </c>
-      <c r="N3" s="39" t="s">
+      <c r="L3" s="39" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C4" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="J4" s="13" t="s">
+      <c r="H4" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="K4" s="13" t="s">
+      <c r="I4" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="L4" s="4">
+      <c r="J4" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C5" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="J5" s="13" t="s">
+      <c r="H5" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="K5" s="37" t="s">
+      <c r="I5" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="L5" s="4">
+      <c r="J5" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C6" s="13" t="s">
         <v>459</v>
       </c>
@@ -14846,53 +14776,53 @@
         <v>2</v>
       </c>
       <c r="F6" s="13" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J6" s="13" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H6" s="13" t="s">
         <v>441</v>
       </c>
-      <c r="K6" s="13" t="s">
+      <c r="I6" s="13" t="s">
         <v>458</v>
       </c>
-      <c r="L6" s="4">
+      <c r="J6" s="4">
         <v>55</v>
       </c>
-      <c r="M6" s="13">
+      <c r="K6" s="13">
         <v>1</v>
       </c>
-      <c r="N6" s="39" t="s">
+      <c r="L6" s="39" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C7" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="J7" s="13" t="s">
+      <c r="H7" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="K7" s="13" t="s">
+      <c r="I7" s="13" t="s">
         <v>218</v>
       </c>
-      <c r="L7" s="4">
+      <c r="J7" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C8" s="13" t="s">
         <v>459</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="H8" s="13" t="s">
         <v>161</v>
       </c>
-      <c r="K8" s="37" t="s">
+      <c r="I8" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="L8" s="4">
+      <c r="J8" s="4">
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="5">
         <v>102</v>
       </c>
@@ -14907,55 +14837,51 @@
         <v>1</v>
       </c>
       <c r="F9" s="35" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="G9" s="35"/>
-      <c r="H9" s="35"/>
-      <c r="I9" s="35"/>
-      <c r="J9" s="35" t="s">
+      <c r="H9" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="K9" s="35" t="s">
+      <c r="I9" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="L9" s="5">
+      <c r="J9" s="5">
         <v>25</v>
       </c>
-      <c r="M9" s="35">
+      <c r="K9" s="35">
         <v>1</v>
       </c>
-      <c r="N9" s="41" t="s">
+      <c r="L9" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="O9" s="4"/>
-      <c r="P9" s="4"/>
-    </row>
-    <row r="10" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M9" s="4"/>
+      <c r="N9" s="4"/>
+    </row>
+    <row r="10" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C10" s="35" t="s">
         <v>234</v>
       </c>
       <c r="D10" s="35"/>
       <c r="F10" s="35"/>
       <c r="G10" s="35"/>
-      <c r="H10" s="35"/>
-      <c r="I10" s="35"/>
-      <c r="J10" s="35" t="s">
+      <c r="H10" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="K10" s="35" t="s">
+      <c r="I10" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="L10" s="5">
+      <c r="J10" s="5">
         <v>100</v>
       </c>
-      <c r="M10" s="35"/>
-      <c r="N10" s="41" t="s">
+      <c r="K10" s="35"/>
+      <c r="L10" s="41" t="s">
         <v>251</v>
       </c>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-    </row>
-    <row r="11" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+    </row>
+    <row r="11" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C11" s="35" t="s">
         <v>234</v>
       </c>
@@ -14964,53 +14890,49 @@
         <v>2</v>
       </c>
       <c r="F11" s="35" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="G11" s="35"/>
-      <c r="H11" s="35"/>
-      <c r="I11" s="35"/>
-      <c r="J11" s="35" t="s">
+      <c r="H11" s="35" t="s">
         <v>441</v>
       </c>
-      <c r="K11" s="35" t="s">
+      <c r="I11" s="35" t="s">
         <v>458</v>
       </c>
-      <c r="L11" s="5">
+      <c r="J11" s="5">
         <v>35</v>
       </c>
-      <c r="M11" s="35">
+      <c r="K11" s="35">
         <v>1</v>
       </c>
-      <c r="N11" s="41" t="s">
+      <c r="L11" s="41" t="s">
         <v>461</v>
       </c>
-      <c r="O11" s="4"/>
-    </row>
-    <row r="12" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="M11" s="4"/>
+    </row>
+    <row r="12" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C12" s="35" t="s">
         <v>234</v>
       </c>
       <c r="D12" s="35"/>
       <c r="F12" s="35"/>
       <c r="G12" s="35"/>
-      <c r="H12" s="35"/>
-      <c r="I12" s="35"/>
-      <c r="J12" s="35" t="s">
+      <c r="H12" s="35" t="s">
         <v>161</v>
       </c>
-      <c r="K12" s="35" t="s">
+      <c r="I12" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="L12" s="5">
+      <c r="J12" s="5">
         <v>100</v>
       </c>
-      <c r="M12" s="35"/>
-      <c r="N12" s="41" t="s">
+      <c r="K12" s="35"/>
+      <c r="L12" s="41" t="s">
         <v>250</v>
       </c>
-      <c r="O12" s="4"/>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.4">
+      <c r="M12" s="4"/>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>103</v>
       </c>
@@ -15024,22 +14946,22 @@
         <v>1</v>
       </c>
       <c r="F13" s="13" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J13" s="13" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H13" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="K13" s="13" t="s">
+      <c r="I13" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="L13" s="4">
+      <c r="J13" s="4">
         <v>30</v>
       </c>
-      <c r="N13" s="39" t="s">
+      <c r="L13" s="39" t="s">
         <v>232</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.4">
       <c r="C14" s="13" t="s">
         <v>463</v>
       </c>
@@ -15047,22 +14969,22 @@
         <v>2</v>
       </c>
       <c r="F14" s="13" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J14" s="13" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H14" s="13" t="s">
         <v>162</v>
       </c>
-      <c r="K14" s="13" t="s">
+      <c r="I14" s="13" t="s">
         <v>462</v>
       </c>
-      <c r="L14" s="4">
+      <c r="J14" s="4">
         <v>30</v>
       </c>
-      <c r="N14" s="39" t="s">
+      <c r="L14" s="39" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="15" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="5">
         <v>104</v>
       </c>
@@ -15077,26 +14999,24 @@
         <v>1</v>
       </c>
       <c r="F15" s="35" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="G15" s="35"/>
-      <c r="H15" s="35"/>
-      <c r="I15" s="35"/>
-      <c r="J15" s="35" t="s">
+      <c r="H15" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="K15" s="35" t="s">
+      <c r="I15" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="L15" s="5">
+      <c r="J15" s="5">
         <v>30</v>
       </c>
-      <c r="M15" s="35"/>
-      <c r="N15" s="41" t="s">
+      <c r="K15" s="35"/>
+      <c r="L15" s="41" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="16" spans="1:16" s="5" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:14" s="5" customFormat="1" x14ac:dyDescent="0.4">
       <c r="C16" s="35" t="s">
         <v>463</v>
       </c>
@@ -15105,26 +15025,24 @@
         <v>2</v>
       </c>
       <c r="F16" s="35" t="s">
-        <v>1245</v>
+        <v>1238</v>
       </c>
       <c r="G16" s="35"/>
-      <c r="H16" s="35"/>
-      <c r="I16" s="35"/>
-      <c r="J16" s="35" t="s">
+      <c r="H16" s="35" t="s">
         <v>163</v>
       </c>
-      <c r="K16" s="35" t="s">
+      <c r="I16" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="L16" s="5">
+      <c r="J16" s="5">
         <v>30</v>
       </c>
-      <c r="M16" s="35"/>
-      <c r="N16" s="41" t="s">
+      <c r="K16" s="35"/>
+      <c r="L16" s="41" t="s">
         <v>229</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>105</v>
       </c>
@@ -15138,22 +15056,22 @@
         <v>1</v>
       </c>
       <c r="F17" s="13" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J17" s="13" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H17" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="K17" s="13" t="s">
+      <c r="I17" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="L17" s="4">
+      <c r="J17" s="4">
         <v>30</v>
       </c>
-      <c r="N17" s="39" t="s">
+      <c r="L17" s="39" t="s">
         <v>465</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.4">
       <c r="C18" s="35" t="s">
         <v>463</v>
       </c>
@@ -15161,18 +15079,18 @@
         <v>2</v>
       </c>
       <c r="F18" s="13" t="s">
-        <v>1245</v>
-      </c>
-      <c r="J18" s="13" t="s">
+        <v>1238</v>
+      </c>
+      <c r="H18" s="13" t="s">
         <v>164</v>
       </c>
-      <c r="K18" s="13" t="s">
+      <c r="I18" s="13" t="s">
         <v>464</v>
       </c>
-      <c r="L18" s="4">
+      <c r="J18" s="4">
         <v>30</v>
       </c>
-      <c r="N18" s="39" t="s">
+      <c r="L18" s="39" t="s">
         <v>466</v>
       </c>
     </row>
@@ -15191,30 +15109,28 @@
     <hyperlink ref="A2" r:id="rId1" xr:uid="{95ADF8CF-F0D4-47D5-A3E2-C40B546FFA3C}"/>
     <hyperlink ref="B2" r:id="rId2" xr:uid="{D4DAF238-1071-4334-AB24-B2467607E66F}"/>
     <hyperlink ref="E2" r:id="rId3" display="lv@int" xr:uid="{7CA8C714-2076-476C-9789-C50E83E3971E}"/>
-    <hyperlink ref="K2" r:id="rId4" xr:uid="{FBE1B47A-B581-4C3C-80AB-A607CCE0D8E6}"/>
-    <hyperlink ref="L2" r:id="rId5" xr:uid="{96D62966-C6D2-4F1F-A39D-045C576FB2D4}"/>
-    <hyperlink ref="M2" r:id="rId6" xr:uid="{DAADB09C-6631-4A7F-BF30-4C478E78827C}"/>
-    <hyperlink ref="N2" r:id="rId7" xr:uid="{2325E50B-163A-474C-AE87-8B4459C3DCC5}"/>
+    <hyperlink ref="I2" r:id="rId4" xr:uid="{FBE1B47A-B581-4C3C-80AB-A607CCE0D8E6}"/>
+    <hyperlink ref="J2" r:id="rId5" xr:uid="{96D62966-C6D2-4F1F-A39D-045C576FB2D4}"/>
+    <hyperlink ref="K2" r:id="rId6" xr:uid="{DAADB09C-6631-4A7F-BF30-4C478E78827C}"/>
+    <hyperlink ref="L2" r:id="rId7" xr:uid="{2325E50B-163A-474C-AE87-8B4459C3DCC5}"/>
     <hyperlink ref="F2" r:id="rId8" display="prop@string" xr:uid="{D2B1C71B-DE9B-4BB2-BD59-C925C6FF6981}"/>
     <hyperlink ref="G2" r:id="rId9" xr:uid="{630B3284-1E1D-485E-8F54-E1F8BA684A69}"/>
-    <hyperlink ref="H2" r:id="rId10" xr:uid="{2D313BE2-4E13-44B3-9964-7F0F5B58435C}"/>
-    <hyperlink ref="I2" r:id="rId11" xr:uid="{E362AAE4-A350-4A24-8FD5-7E9ADD3CCA63}"/>
-    <hyperlink ref="D2" r:id="rId12" xr:uid="{994F6028-A859-4C78-9C82-03CDD2405E42}"/>
-    <hyperlink ref="C2" r:id="rId13" xr:uid="{E9E6C1D3-AE4A-4CDA-8205-6FC3247CE3F8}"/>
+    <hyperlink ref="D2" r:id="rId10" xr:uid="{994F6028-A859-4C78-9C82-03CDD2405E42}"/>
+    <hyperlink ref="C2" r:id="rId11" xr:uid="{E9E6C1D3-AE4A-4CDA-8205-6FC3247CE3F8}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId12"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId14"/>
+  <legacyDrawing r:id="rId13"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:I97"/>
+  <dimension ref="A1:G97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -15225,15 +15141,13 @@
     <col min="4" max="4" width="12.875" style="13" customWidth="1"/>
     <col min="5" max="5" width="9.5" style="13" customWidth="1"/>
     <col min="6" max="7" width="17.375" style="13" customWidth="1"/>
-    <col min="8" max="8" width="17.8125" style="4" customWidth="1"/>
-    <col min="9" max="9" width="9.875" style="4" customWidth="1"/>
-    <col min="10" max="18" width="9" style="4"/>
-    <col min="19" max="19" width="14.125" style="4" customWidth="1"/>
-    <col min="20" max="20" width="13.5" style="4" customWidth="1"/>
-    <col min="21" max="16384" width="9" style="4"/>
+    <col min="8" max="16" width="9" style="4"/>
+    <col min="17" max="17" width="14.125" style="4" customWidth="1"/>
+    <col min="18" max="18" width="13.5" style="4" customWidth="1"/>
+    <col min="19" max="16384" width="9" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A1" s="13" t="s">
         <v>1102</v>
       </c>
@@ -15250,19 +15164,13 @@
         <v>1105</v>
       </c>
       <c r="F1" s="13" t="s">
-        <v>1223</v>
+        <v>1221</v>
       </c>
       <c r="G1" s="13" t="s">
-        <v>1224</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>1099</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>457</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" ht="15.75" x14ac:dyDescent="0.4">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A2" s="62" t="s">
         <v>1174</v>
       </c>
@@ -15273,25 +15181,19 @@
         <v>1209</v>
       </c>
       <c r="D2" s="62" t="s">
-        <v>1237</v>
+        <v>1231</v>
       </c>
       <c r="E2" s="62" t="s">
-        <v>1222</v>
-      </c>
-      <c r="F2" s="63" t="s">
-        <v>1231</v>
+        <v>1220</v>
+      </c>
+      <c r="F2" s="62" t="s">
+        <v>1240</v>
       </c>
       <c r="G2" s="62" t="s">
-        <v>1225</v>
-      </c>
-      <c r="H2" s="62" t="s">
-        <v>1229</v>
-      </c>
-      <c r="I2" s="62" t="s">
-        <v>1230</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.4">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>1109</v>
       </c>
@@ -15305,7 +15207,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>1404</v>
       </c>
@@ -15319,7 +15221,7 @@
         <v>568</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>1710</v>
       </c>
@@ -15333,7 +15235,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>1712</v>
       </c>
@@ -15347,7 +15249,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>2103</v>
       </c>
@@ -15361,7 +15263,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>2107</v>
       </c>
@@ -15375,7 +15277,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>2314</v>
       </c>
@@ -15389,7 +15291,7 @@
         <v>572</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>3103</v>
       </c>
@@ -15403,7 +15305,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>3107</v>
       </c>
@@ -15417,7 +15319,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>3111</v>
       </c>
@@ -15431,7 +15333,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>3115</v>
       </c>
@@ -15445,7 +15347,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>4001</v>
       </c>
@@ -15459,7 +15361,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="15" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="15">
         <v>4002</v>
       </c>
@@ -15476,7 +15378,7 @@
       </c>
       <c r="G15" s="32"/>
     </row>
-    <row r="16" spans="1:9" s="15" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A16" s="15">
         <v>4004</v>
       </c>
@@ -16763,13 +16665,11 @@
     <hyperlink ref="E2" r:id="rId5" xr:uid="{5A6BC8A9-EBB6-4C8C-9857-C3789C7E7739}"/>
     <hyperlink ref="F2" r:id="rId6" display="buff1@string" xr:uid="{E620986A-34DE-447D-BA9A-660A1B1E479B}"/>
     <hyperlink ref="G2" r:id="rId7" xr:uid="{6C37C50F-B27E-4BD1-82FA-3E95414B07FC}"/>
-    <hyperlink ref="H2" r:id="rId8" xr:uid="{7CB7ACEA-4623-4091-A11D-80AB7BE1C16C}"/>
-    <hyperlink ref="I2" r:id="rId9" xr:uid="{99323DC9-8EDB-415C-8867-FCA2B3956C04}"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51" footer="0.51"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
   <headerFooter alignWithMargins="0"/>
-  <legacyDrawing r:id="rId10"/>
+  <legacyDrawing r:id="rId8"/>
 </worksheet>
 </file>
 
@@ -16801,13 +16701,13 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A2" s="61" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B2" s="61" t="s">
+        <v>1225</v>
+      </c>
+      <c r="C2" s="61" t="s">
         <v>1226</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C2" s="61" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -18302,7 +18202,7 @@
   <dimension ref="A1:F210"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -18322,10 +18222,10 @@
     </row>
     <row r="2" spans="1:2" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A2" s="61" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B2" s="61" t="s">
         <v>1226</v>
-      </c>
-      <c r="B2" s="61" t="s">
-        <v>1228</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
@@ -20397,13 +20297,13 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A2" s="61" t="s">
+        <v>1224</v>
+      </c>
+      <c r="B2" s="61" t="s">
         <v>1226</v>
       </c>
-      <c r="B2" s="61" t="s">
-        <v>1228</v>
-      </c>
       <c r="C2" s="61" t="s">
-        <v>1232</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -22669,7 +22569,7 @@
         <v>1216</v>
       </c>
       <c r="C2" s="61" t="s">
-        <v>1233</v>
+        <v>1228</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.4">
@@ -23005,7 +22905,7 @@
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H66" s="52" t="s">
-        <v>1234</v>
+        <v>1229</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.4">

--- a/tool/table/table/skill.xlsx
+++ b/tool/table/table/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodger\Documents\GitHub\lolita_son\lolita_son\tool\table\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C4B5D3D-2C45-475E-8CE0-835B5A0AA879}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D510C9C4-1FD9-49FD-AA86-CB15E6021E17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="860" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="负责人" sheetId="1" r:id="rId1"/>
@@ -2656,11 +2656,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="K22" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="T27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="N33" sqref="N33"/>
+      <selection pane="bottomRight" activeCell="W4" sqref="W4:W49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -2967,7 +2967,7 @@
         <v>78</v>
       </c>
       <c r="W3" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X3" s="2">
         <v>80</v>
@@ -3042,7 +3042,7 @@
         <v>94</v>
       </c>
       <c r="W4" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X4" s="2">
         <v>80</v>
@@ -3117,7 +3117,7 @@
         <v>109</v>
       </c>
       <c r="W5" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X5" s="2">
         <v>80</v>
@@ -3192,7 +3192,7 @@
         <v>124</v>
       </c>
       <c r="W6" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X6" s="2">
         <v>80</v>
@@ -3267,7 +3267,7 @@
         <v>140</v>
       </c>
       <c r="W7" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X7" s="2">
         <v>80</v>
@@ -3342,7 +3342,7 @@
         <v>155</v>
       </c>
       <c r="W8" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X8" s="2">
         <v>80</v>
@@ -3417,7 +3417,7 @@
         <v>171</v>
       </c>
       <c r="W9" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X9" s="2">
         <v>80</v>
@@ -3492,7 +3492,7 @@
         <v>186</v>
       </c>
       <c r="W10" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X10" s="2">
         <v>80</v>
@@ -3567,7 +3567,7 @@
         <v>201</v>
       </c>
       <c r="W11" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X11" s="2">
         <v>80</v>
@@ -3642,7 +3642,7 @@
         <v>217</v>
       </c>
       <c r="W12" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X12" s="2">
         <v>80</v>
@@ -3717,7 +3717,7 @@
         <v>232</v>
       </c>
       <c r="W13" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X13" s="2">
         <v>80</v>
@@ -3792,7 +3792,7 @@
         <v>248</v>
       </c>
       <c r="W14" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X14" s="2">
         <v>80</v>
@@ -3867,7 +3867,7 @@
         <v>263</v>
       </c>
       <c r="W15" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X15" s="2">
         <v>80</v>
@@ -3942,7 +3942,7 @@
         <v>278</v>
       </c>
       <c r="W16" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X16" s="2">
         <v>80</v>
@@ -4017,7 +4017,7 @@
         <v>294</v>
       </c>
       <c r="W17" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X17" s="2">
         <v>80</v>
@@ -4092,7 +4092,7 @@
         <v>309</v>
       </c>
       <c r="W18" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X18" s="2">
         <v>80</v>
@@ -4167,7 +4167,7 @@
         <v>325</v>
       </c>
       <c r="W19" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X19" s="2">
         <v>80</v>
@@ -4242,7 +4242,7 @@
         <v>340</v>
       </c>
       <c r="W20" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X20" s="2">
         <v>80</v>
@@ -4317,7 +4317,7 @@
         <v>355</v>
       </c>
       <c r="W21" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X21" s="2">
         <v>80</v>
@@ -4392,7 +4392,7 @@
         <v>371</v>
       </c>
       <c r="W22" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X22" s="2">
         <v>80</v>
@@ -4467,7 +4467,7 @@
         <v>386</v>
       </c>
       <c r="W23" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X23" s="2">
         <v>80</v>
@@ -4542,7 +4542,7 @@
         <v>402</v>
       </c>
       <c r="W24" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X24" s="2">
         <v>80</v>
@@ -4617,7 +4617,7 @@
         <v>417</v>
       </c>
       <c r="W25" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X25" s="2">
         <v>80</v>
@@ -4702,7 +4702,7 @@
         <v>67</v>
       </c>
       <c r="W26" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X26" s="2">
         <v>60</v>
@@ -4776,7 +4776,7 @@
         <v>92</v>
       </c>
       <c r="W27" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X27" s="2">
         <v>80</v>
@@ -4850,7 +4850,7 @@
         <v>117</v>
       </c>
       <c r="W28" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X28" s="2">
         <v>80</v>
@@ -4924,7 +4924,7 @@
         <v>143</v>
       </c>
       <c r="W29" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X29" s="2">
         <v>80</v>
@@ -4998,7 +4998,7 @@
         <v>168</v>
       </c>
       <c r="W30" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X30" s="2">
         <v>80</v>
@@ -5072,7 +5072,7 @@
         <v>193</v>
       </c>
       <c r="W31" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X31" s="2">
         <v>80</v>
@@ -5146,7 +5146,7 @@
         <v>218</v>
       </c>
       <c r="W32" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X32" s="2">
         <v>80</v>
@@ -5220,7 +5220,7 @@
         <v>243</v>
       </c>
       <c r="W33" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X33" s="2">
         <v>80</v>
@@ -5294,7 +5294,7 @@
         <v>269</v>
       </c>
       <c r="W34" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X34" s="2">
         <v>80</v>
@@ -5368,7 +5368,7 @@
         <v>294</v>
       </c>
       <c r="W35" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X35" s="2">
         <v>80</v>
@@ -5442,7 +5442,7 @@
         <v>319</v>
       </c>
       <c r="W36" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X36" s="2">
         <v>80</v>
@@ -5516,7 +5516,7 @@
         <v>344</v>
       </c>
       <c r="W37" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X37" s="2">
         <v>80</v>
@@ -5590,7 +5590,7 @@
         <v>369</v>
       </c>
       <c r="W38" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X38" s="2">
         <v>80</v>
@@ -5664,7 +5664,7 @@
         <v>395</v>
       </c>
       <c r="W39" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X39" s="2">
         <v>80</v>
@@ -5738,7 +5738,7 @@
         <v>420</v>
       </c>
       <c r="W40" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X40" s="2">
         <v>80</v>
@@ -5812,7 +5812,7 @@
         <v>445</v>
       </c>
       <c r="W41" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X41" s="2">
         <v>80</v>
@@ -5886,7 +5886,7 @@
         <v>470</v>
       </c>
       <c r="W42" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X42" s="2">
         <v>80</v>
@@ -5960,7 +5960,7 @@
         <v>495</v>
       </c>
       <c r="W43" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X43" s="2">
         <v>80</v>
@@ -6034,7 +6034,7 @@
         <v>521</v>
       </c>
       <c r="W44" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X44" s="2">
         <v>80</v>
@@ -6108,7 +6108,7 @@
         <v>546</v>
       </c>
       <c r="W45" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X45" s="2">
         <v>80</v>
@@ -6182,7 +6182,7 @@
         <v>571</v>
       </c>
       <c r="W46" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X46" s="2">
         <v>80</v>
@@ -6256,7 +6256,7 @@
         <v>596</v>
       </c>
       <c r="W47" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X47" s="2">
         <v>80</v>
@@ -6330,7 +6330,7 @@
         <v>621</v>
       </c>
       <c r="W48" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X48" s="2">
         <v>80</v>
@@ -6404,7 +6404,7 @@
         <v>647</v>
       </c>
       <c r="W49" s="2">
-        <v>110</v>
+        <v>135</v>
       </c>
       <c r="X49" s="2">
         <v>80</v>
@@ -7335,8 +7335,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B34" sqref="B34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>

--- a/tool/table/table/skill.xlsx
+++ b/tool/table/table/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodger\Documents\GitHub\lolita_son\lolita_son\tool\table\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D510C9C4-1FD9-49FD-AA86-CB15E6021E17}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E88B80-7539-482F-851A-24554AC2E318}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="276">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="275">
   <si>
     <t>buff和效果规则</t>
   </si>
@@ -1225,10 +1225,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>effdst@string</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>effvalue@string</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1238,10 +1234,6 @@
   </si>
   <si>
     <t>buffhit@int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>buffdst@string</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -1612,6 +1604,10 @@
   </si>
   <si>
     <t>治疗术</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffdst@int</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2657,10 +2653,10 @@
   <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="T27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="W4" sqref="W4:W49"/>
+      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -2683,7 +2679,7 @@
     <col min="25" max="25" width="8" style="3" customWidth="1"/>
     <col min="26" max="26" width="14.375" style="7" customWidth="1"/>
     <col min="27" max="28" width="16.75" style="7" customWidth="1"/>
-    <col min="29" max="29" width="9.8125" style="7" customWidth="1"/>
+    <col min="29" max="29" width="22.8125" style="7" customWidth="1"/>
     <col min="30" max="30" width="16.625" style="16" customWidth="1"/>
     <col min="31" max="31" width="9.4375" style="7" customWidth="1"/>
     <col min="32" max="32" width="11.5" style="7" customWidth="1"/>
@@ -2784,7 +2780,7 @@
         <v>46</v>
       </c>
       <c r="AB1" s="1" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="AC1" s="1" t="s">
         <v>94</v>
@@ -2825,7 +2821,7 @@
         <v>176</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="F2" s="32" t="s">
         <v>177</v>
@@ -2873,7 +2869,7 @@
         <v>191</v>
       </c>
       <c r="U2" s="32" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="V2" s="32" t="s">
         <v>192</v>
@@ -2888,37 +2884,37 @@
         <v>195</v>
       </c>
       <c r="Z2" s="33" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="AA2" s="32" t="s">
         <v>196</v>
       </c>
       <c r="AB2" s="32" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="AC2" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="AD2" s="35" t="s">
         <v>197</v>
       </c>
-      <c r="AD2" s="35" t="s">
+      <c r="AE2" s="32" t="s">
+        <v>233</v>
+      </c>
+      <c r="AF2" s="32" t="s">
         <v>198</v>
       </c>
-      <c r="AE2" s="32" t="s">
-        <v>235</v>
-      </c>
-      <c r="AF2" s="32" t="s">
+      <c r="AG2" s="32" t="s">
         <v>199</v>
       </c>
-      <c r="AG2" s="32" t="s">
+      <c r="AH2" s="32" t="s">
+        <v>274</v>
+      </c>
+      <c r="AI2" s="36" t="s">
         <v>200</v>
       </c>
-      <c r="AH2" s="32" t="s">
+      <c r="AJ2" s="32" t="s">
         <v>201</v>
-      </c>
-      <c r="AI2" s="36" t="s">
-        <v>202</v>
-      </c>
-      <c r="AJ2" s="32" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:36" s="2" customFormat="1" x14ac:dyDescent="0.4">
@@ -2929,7 +2925,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="D3" s="13">
         <v>167</v>
@@ -2976,10 +2972,10 @@
         <v>100</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AB3" s="13">
         <v>100</v>
@@ -2988,20 +2984,20 @@
         <v>1</v>
       </c>
       <c r="AD3" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE3" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF3" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG3" s="2">
         <v>60</v>
       </c>
       <c r="AH3" s="13"/>
       <c r="AI3" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ3" s="2">
         <v>3</v>
@@ -3051,7 +3047,7 @@
         <v>100</v>
       </c>
       <c r="Z4" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA4" s="13" t="s">
         <v>112</v>
@@ -3063,20 +3059,20 @@
         <v>1</v>
       </c>
       <c r="AD4" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE4" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG4" s="2">
         <v>60</v>
       </c>
       <c r="AH4" s="13"/>
       <c r="AI4" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ4" s="2">
         <v>3</v>
@@ -3126,7 +3122,7 @@
         <v>100</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA5" s="13" t="s">
         <v>112</v>
@@ -3138,20 +3134,20 @@
         <v>1</v>
       </c>
       <c r="AD5" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE5" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG5" s="2">
         <v>60</v>
       </c>
       <c r="AH5" s="13"/>
       <c r="AI5" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ5" s="2">
         <v>3</v>
@@ -3201,7 +3197,7 @@
         <v>100</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA6" s="13" t="s">
         <v>112</v>
@@ -3213,20 +3209,20 @@
         <v>1</v>
       </c>
       <c r="AD6" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE6" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF6" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG6" s="2">
         <v>60</v>
       </c>
       <c r="AH6" s="13"/>
       <c r="AI6" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ6" s="2">
         <v>3</v>
@@ -3276,7 +3272,7 @@
         <v>100</v>
       </c>
       <c r="Z7" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA7" s="13" t="s">
         <v>112</v>
@@ -3288,20 +3284,20 @@
         <v>1</v>
       </c>
       <c r="AD7" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE7" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF7" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG7" s="2">
         <v>60</v>
       </c>
       <c r="AH7" s="13"/>
       <c r="AI7" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ7" s="2">
         <v>3</v>
@@ -3351,7 +3347,7 @@
         <v>100</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA8" s="13" t="s">
         <v>112</v>
@@ -3363,20 +3359,20 @@
         <v>1</v>
       </c>
       <c r="AD8" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE8" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG8" s="2">
         <v>60</v>
       </c>
       <c r="AH8" s="13"/>
       <c r="AI8" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ8" s="2">
         <v>3</v>
@@ -3426,7 +3422,7 @@
         <v>100</v>
       </c>
       <c r="Z9" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA9" s="13" t="s">
         <v>112</v>
@@ -3438,20 +3434,20 @@
         <v>1</v>
       </c>
       <c r="AD9" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE9" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF9" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG9" s="2">
         <v>60</v>
       </c>
       <c r="AH9" s="13"/>
       <c r="AI9" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ9" s="2">
         <v>3</v>
@@ -3501,7 +3497,7 @@
         <v>100</v>
       </c>
       <c r="Z10" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA10" s="13" t="s">
         <v>112</v>
@@ -3513,20 +3509,20 @@
         <v>1</v>
       </c>
       <c r="AD10" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE10" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF10" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG10" s="2">
         <v>60</v>
       </c>
       <c r="AH10" s="13"/>
       <c r="AI10" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ10" s="2">
         <v>3</v>
@@ -3576,7 +3572,7 @@
         <v>100</v>
       </c>
       <c r="Z11" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA11" s="13" t="s">
         <v>112</v>
@@ -3588,20 +3584,20 @@
         <v>1</v>
       </c>
       <c r="AD11" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE11" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF11" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG11" s="2">
         <v>60</v>
       </c>
       <c r="AH11" s="13"/>
       <c r="AI11" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ11" s="2">
         <v>3</v>
@@ -3651,7 +3647,7 @@
         <v>100</v>
       </c>
       <c r="Z12" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA12" s="13" t="s">
         <v>112</v>
@@ -3663,20 +3659,20 @@
         <v>1</v>
       </c>
       <c r="AD12" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE12" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG12" s="2">
         <v>60</v>
       </c>
       <c r="AH12" s="13"/>
       <c r="AI12" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ12" s="2">
         <v>3</v>
@@ -3726,7 +3722,7 @@
         <v>100</v>
       </c>
       <c r="Z13" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA13" s="13" t="s">
         <v>112</v>
@@ -3738,20 +3734,20 @@
         <v>1</v>
       </c>
       <c r="AD13" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE13" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF13" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG13" s="2">
         <v>60</v>
       </c>
       <c r="AH13" s="13"/>
       <c r="AI13" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ13" s="2">
         <v>3</v>
@@ -3801,7 +3797,7 @@
         <v>100</v>
       </c>
       <c r="Z14" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA14" s="13" t="s">
         <v>112</v>
@@ -3813,20 +3809,20 @@
         <v>1</v>
       </c>
       <c r="AD14" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE14" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG14" s="2">
         <v>60</v>
       </c>
       <c r="AH14" s="13"/>
       <c r="AI14" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ14" s="2">
         <v>3</v>
@@ -3876,7 +3872,7 @@
         <v>100</v>
       </c>
       <c r="Z15" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA15" s="13" t="s">
         <v>112</v>
@@ -3888,20 +3884,20 @@
         <v>1</v>
       </c>
       <c r="AD15" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE15" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF15" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG15" s="2">
         <v>60</v>
       </c>
       <c r="AH15" s="13"/>
       <c r="AI15" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ15" s="2">
         <v>3</v>
@@ -3951,7 +3947,7 @@
         <v>100</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA16" s="13" t="s">
         <v>112</v>
@@ -3963,20 +3959,20 @@
         <v>1</v>
       </c>
       <c r="AD16" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE16" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF16" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG16" s="2">
         <v>60</v>
       </c>
       <c r="AH16" s="13"/>
       <c r="AI16" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ16" s="2">
         <v>3</v>
@@ -4026,7 +4022,7 @@
         <v>100</v>
       </c>
       <c r="Z17" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA17" s="13" t="s">
         <v>112</v>
@@ -4038,20 +4034,20 @@
         <v>1</v>
       </c>
       <c r="AD17" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE17" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF17" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG17" s="2">
         <v>60</v>
       </c>
       <c r="AH17" s="13"/>
       <c r="AI17" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ17" s="2">
         <v>3</v>
@@ -4101,7 +4097,7 @@
         <v>100</v>
       </c>
       <c r="Z18" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA18" s="13" t="s">
         <v>112</v>
@@ -4113,20 +4109,20 @@
         <v>1</v>
       </c>
       <c r="AD18" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE18" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF18" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG18" s="2">
         <v>60</v>
       </c>
       <c r="AH18" s="13"/>
       <c r="AI18" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ18" s="2">
         <v>3</v>
@@ -4176,7 +4172,7 @@
         <v>100</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA19" s="13" t="s">
         <v>112</v>
@@ -4188,20 +4184,20 @@
         <v>1</v>
       </c>
       <c r="AD19" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE19" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF19" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG19" s="2">
         <v>60</v>
       </c>
       <c r="AH19" s="13"/>
       <c r="AI19" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ19" s="2">
         <v>3</v>
@@ -4251,7 +4247,7 @@
         <v>100</v>
       </c>
       <c r="Z20" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA20" s="13" t="s">
         <v>112</v>
@@ -4263,20 +4259,20 @@
         <v>1</v>
       </c>
       <c r="AD20" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE20" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF20" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG20" s="2">
         <v>60</v>
       </c>
       <c r="AH20" s="13"/>
       <c r="AI20" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ20" s="2">
         <v>3</v>
@@ -4326,7 +4322,7 @@
         <v>100</v>
       </c>
       <c r="Z21" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA21" s="13" t="s">
         <v>112</v>
@@ -4338,20 +4334,20 @@
         <v>1</v>
       </c>
       <c r="AD21" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE21" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF21" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG21" s="2">
         <v>60</v>
       </c>
       <c r="AH21" s="13"/>
       <c r="AI21" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ21" s="2">
         <v>3</v>
@@ -4401,7 +4397,7 @@
         <v>100</v>
       </c>
       <c r="Z22" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA22" s="13" t="s">
         <v>112</v>
@@ -4413,20 +4409,20 @@
         <v>1</v>
       </c>
       <c r="AD22" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE22" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF22" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG22" s="2">
         <v>60</v>
       </c>
       <c r="AH22" s="13"/>
       <c r="AI22" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ22" s="2">
         <v>3</v>
@@ -4476,7 +4472,7 @@
         <v>100</v>
       </c>
       <c r="Z23" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA23" s="13" t="s">
         <v>112</v>
@@ -4488,20 +4484,20 @@
         <v>1</v>
       </c>
       <c r="AD23" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE23" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF23" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG23" s="2">
         <v>60</v>
       </c>
       <c r="AH23" s="13"/>
       <c r="AI23" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ23" s="2">
         <v>3</v>
@@ -4551,7 +4547,7 @@
         <v>100</v>
       </c>
       <c r="Z24" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA24" s="13" t="s">
         <v>112</v>
@@ -4563,20 +4559,20 @@
         <v>1</v>
       </c>
       <c r="AD24" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE24" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG24" s="2">
         <v>60</v>
       </c>
       <c r="AH24" s="13"/>
       <c r="AI24" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ24" s="2">
         <v>3</v>
@@ -4626,7 +4622,7 @@
         <v>100</v>
       </c>
       <c r="Z25" s="13" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="AA25" s="13" t="s">
         <v>112</v>
@@ -4638,20 +4634,20 @@
         <v>1</v>
       </c>
       <c r="AD25" s="26" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AE25" s="13" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="AF25" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AG25" s="2">
         <v>60</v>
       </c>
       <c r="AH25" s="13"/>
       <c r="AI25" s="28" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AJ25" s="2">
         <v>3</v>
@@ -4662,10 +4658,10 @@
         <v>1002</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="D26" s="13">
         <v>177</v>
@@ -4711,23 +4707,23 @@
         <v>100</v>
       </c>
       <c r="Z26" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA26" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB26" s="13">
         <v>100</v>
       </c>
       <c r="AC26" s="13"/>
       <c r="AD26" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE26" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF26" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG26" s="2">
         <v>100</v>
@@ -4736,7 +4732,7 @@
         <v>1</v>
       </c>
       <c r="AI26" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ26" s="2">
         <v>3</v>
@@ -4785,23 +4781,23 @@
         <v>100</v>
       </c>
       <c r="Z27" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA27" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB27" s="13">
         <v>100</v>
       </c>
       <c r="AC27" s="13"/>
       <c r="AD27" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE27" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG27" s="2">
         <v>100</v>
@@ -4810,7 +4806,7 @@
         <v>1</v>
       </c>
       <c r="AI27" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ27" s="2">
         <v>3</v>
@@ -4859,23 +4855,23 @@
         <v>100</v>
       </c>
       <c r="Z28" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA28" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB28" s="13">
         <v>100</v>
       </c>
       <c r="AC28" s="13"/>
       <c r="AD28" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE28" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF28" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG28" s="2">
         <v>100</v>
@@ -4884,7 +4880,7 @@
         <v>1</v>
       </c>
       <c r="AI28" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ28" s="2">
         <v>3</v>
@@ -4933,23 +4929,23 @@
         <v>100</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA29" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB29" s="13">
         <v>100</v>
       </c>
       <c r="AC29" s="13"/>
       <c r="AD29" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE29" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF29" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG29" s="2">
         <v>100</v>
@@ -4958,7 +4954,7 @@
         <v>1</v>
       </c>
       <c r="AI29" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ29" s="2">
         <v>3</v>
@@ -5007,23 +5003,23 @@
         <v>100</v>
       </c>
       <c r="Z30" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA30" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB30" s="13">
         <v>100</v>
       </c>
       <c r="AC30" s="13"/>
       <c r="AD30" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE30" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF30" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG30" s="2">
         <v>100</v>
@@ -5032,7 +5028,7 @@
         <v>1</v>
       </c>
       <c r="AI30" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ30" s="2">
         <v>3</v>
@@ -5081,23 +5077,23 @@
         <v>100</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB31" s="13">
         <v>100</v>
       </c>
       <c r="AC31" s="13"/>
       <c r="AD31" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE31" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF31" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG31" s="2">
         <v>100</v>
@@ -5106,7 +5102,7 @@
         <v>1</v>
       </c>
       <c r="AI31" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ31" s="2">
         <v>3</v>
@@ -5155,23 +5151,23 @@
         <v>100</v>
       </c>
       <c r="Z32" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA32" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB32" s="13">
         <v>100</v>
       </c>
       <c r="AC32" s="13"/>
       <c r="AD32" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE32" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF32" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG32" s="2">
         <v>100</v>
@@ -5180,7 +5176,7 @@
         <v>1</v>
       </c>
       <c r="AI32" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ32" s="2">
         <v>3</v>
@@ -5229,23 +5225,23 @@
         <v>100</v>
       </c>
       <c r="Z33" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA33" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB33" s="13">
         <v>100</v>
       </c>
       <c r="AC33" s="13"/>
       <c r="AD33" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE33" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF33" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG33" s="2">
         <v>100</v>
@@ -5254,7 +5250,7 @@
         <v>1</v>
       </c>
       <c r="AI33" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ33" s="2">
         <v>3</v>
@@ -5303,23 +5299,23 @@
         <v>100</v>
       </c>
       <c r="Z34" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA34" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB34" s="13">
         <v>100</v>
       </c>
       <c r="AC34" s="13"/>
       <c r="AD34" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE34" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF34" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG34" s="2">
         <v>100</v>
@@ -5328,7 +5324,7 @@
         <v>1</v>
       </c>
       <c r="AI34" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ34" s="2">
         <v>3</v>
@@ -5377,23 +5373,23 @@
         <v>100</v>
       </c>
       <c r="Z35" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA35" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB35" s="13">
         <v>100</v>
       </c>
       <c r="AC35" s="13"/>
       <c r="AD35" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE35" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF35" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG35" s="2">
         <v>100</v>
@@ -5402,7 +5398,7 @@
         <v>1</v>
       </c>
       <c r="AI35" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ35" s="2">
         <v>3</v>
@@ -5451,23 +5447,23 @@
         <v>100</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB36" s="13">
         <v>100</v>
       </c>
       <c r="AC36" s="13"/>
       <c r="AD36" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG36" s="2">
         <v>100</v>
@@ -5476,7 +5472,7 @@
         <v>1</v>
       </c>
       <c r="AI36" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ36" s="2">
         <v>3</v>
@@ -5525,23 +5521,23 @@
         <v>100</v>
       </c>
       <c r="Z37" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA37" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB37" s="13">
         <v>100</v>
       </c>
       <c r="AC37" s="13"/>
       <c r="AD37" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE37" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF37" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG37" s="2">
         <v>100</v>
@@ -5550,7 +5546,7 @@
         <v>1</v>
       </c>
       <c r="AI37" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ37" s="2">
         <v>3</v>
@@ -5599,23 +5595,23 @@
         <v>100</v>
       </c>
       <c r="Z38" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA38" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB38" s="13">
         <v>100</v>
       </c>
       <c r="AC38" s="13"/>
       <c r="AD38" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE38" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF38" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG38" s="2">
         <v>100</v>
@@ -5624,7 +5620,7 @@
         <v>1</v>
       </c>
       <c r="AI38" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ38" s="2">
         <v>3</v>
@@ -5673,23 +5669,23 @@
         <v>100</v>
       </c>
       <c r="Z39" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA39" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB39" s="13">
         <v>100</v>
       </c>
       <c r="AC39" s="13"/>
       <c r="AD39" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE39" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF39" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG39" s="2">
         <v>100</v>
@@ -5698,7 +5694,7 @@
         <v>1</v>
       </c>
       <c r="AI39" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ39" s="2">
         <v>3</v>
@@ -5747,23 +5743,23 @@
         <v>100</v>
       </c>
       <c r="Z40" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA40" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB40" s="13">
         <v>100</v>
       </c>
       <c r="AC40" s="13"/>
       <c r="AD40" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE40" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF40" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG40" s="2">
         <v>100</v>
@@ -5772,7 +5768,7 @@
         <v>1</v>
       </c>
       <c r="AI40" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ40" s="2">
         <v>3</v>
@@ -5821,23 +5817,23 @@
         <v>100</v>
       </c>
       <c r="Z41" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA41" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB41" s="13">
         <v>100</v>
       </c>
       <c r="AC41" s="13"/>
       <c r="AD41" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE41" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF41" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG41" s="2">
         <v>100</v>
@@ -5846,7 +5842,7 @@
         <v>1</v>
       </c>
       <c r="AI41" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ41" s="2">
         <v>3</v>
@@ -5895,23 +5891,23 @@
         <v>100</v>
       </c>
       <c r="Z42" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA42" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB42" s="13">
         <v>100</v>
       </c>
       <c r="AC42" s="13"/>
       <c r="AD42" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE42" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF42" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG42" s="2">
         <v>100</v>
@@ -5920,7 +5916,7 @@
         <v>1</v>
       </c>
       <c r="AI42" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ42" s="2">
         <v>3</v>
@@ -5969,23 +5965,23 @@
         <v>100</v>
       </c>
       <c r="Z43" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA43" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB43" s="13">
         <v>100</v>
       </c>
       <c r="AC43" s="13"/>
       <c r="AD43" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE43" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF43" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG43" s="2">
         <v>100</v>
@@ -5994,7 +5990,7 @@
         <v>1</v>
       </c>
       <c r="AI43" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ43" s="2">
         <v>3</v>
@@ -6043,23 +6039,23 @@
         <v>100</v>
       </c>
       <c r="Z44" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA44" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB44" s="13">
         <v>100</v>
       </c>
       <c r="AC44" s="13"/>
       <c r="AD44" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE44" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF44" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG44" s="2">
         <v>100</v>
@@ -6068,7 +6064,7 @@
         <v>1</v>
       </c>
       <c r="AI44" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ44" s="2">
         <v>3</v>
@@ -6117,23 +6113,23 @@
         <v>100</v>
       </c>
       <c r="Z45" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA45" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB45" s="13">
         <v>100</v>
       </c>
       <c r="AC45" s="13"/>
       <c r="AD45" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE45" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF45" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG45" s="2">
         <v>100</v>
@@ -6142,7 +6138,7 @@
         <v>1</v>
       </c>
       <c r="AI45" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ45" s="2">
         <v>3</v>
@@ -6191,23 +6187,23 @@
         <v>100</v>
       </c>
       <c r="Z46" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA46" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB46" s="13">
         <v>100</v>
       </c>
       <c r="AC46" s="13"/>
       <c r="AD46" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE46" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF46" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG46" s="2">
         <v>100</v>
@@ -6216,7 +6212,7 @@
         <v>1</v>
       </c>
       <c r="AI46" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ46" s="2">
         <v>3</v>
@@ -6265,23 +6261,23 @@
         <v>100</v>
       </c>
       <c r="Z47" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA47" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB47" s="13">
         <v>100</v>
       </c>
       <c r="AC47" s="13"/>
       <c r="AD47" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE47" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF47" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG47" s="2">
         <v>100</v>
@@ -6290,7 +6286,7 @@
         <v>1</v>
       </c>
       <c r="AI47" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ47" s="2">
         <v>3</v>
@@ -6339,23 +6335,23 @@
         <v>100</v>
       </c>
       <c r="Z48" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA48" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB48" s="13">
         <v>100</v>
       </c>
       <c r="AC48" s="13"/>
       <c r="AD48" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE48" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF48" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG48" s="2">
         <v>100</v>
@@ -6364,7 +6360,7 @@
         <v>1</v>
       </c>
       <c r="AI48" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ48" s="2">
         <v>3</v>
@@ -6413,23 +6409,23 @@
         <v>100</v>
       </c>
       <c r="Z49" s="13" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AA49" s="13" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="AB49" s="13">
         <v>100</v>
       </c>
       <c r="AC49" s="13"/>
       <c r="AD49" s="26" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="AE49" s="13" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="AF49" s="13" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="AG49" s="2">
         <v>100</v>
@@ -6438,7 +6434,7 @@
         <v>1</v>
       </c>
       <c r="AI49" s="28" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="AJ49" s="2">
         <v>3</v>
@@ -6625,10 +6621,10 @@
         <v>31</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>30</v>
@@ -6652,37 +6648,37 @@
         <v>173</v>
       </c>
       <c r="B2" s="32" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C2" s="32" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="E2" s="32" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="F2" s="32" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="G2" s="32" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="I2" s="32" t="s">
         <v>196</v>
       </c>
       <c r="J2" s="32" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="L2" s="35" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="M2" s="1"/>
     </row>
@@ -6700,7 +6696,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>64</v>
@@ -6754,7 +6750,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>64</v>
@@ -6815,7 +6811,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12" t="s">
@@ -6868,7 +6864,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
@@ -6924,13 +6920,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J13" s="3">
         <v>30</v>
@@ -6947,13 +6943,13 @@
         <v>2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J14" s="3">
         <v>30</v>
@@ -6977,14 +6973,14 @@
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J15" s="4">
         <v>30</v>
@@ -7003,14 +6999,14 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J16" s="4">
         <v>30</v>
@@ -7034,13 +7030,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="J17" s="3">
         <v>30</v>
@@ -7057,7 +7053,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>27</v>
@@ -7077,25 +7073,25 @@
         <v>106</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="G19" s="7">
         <v>20</v>
       </c>
       <c r="H19" s="7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I19" s="7" t="s">
         <v>241</v>
-      </c>
-      <c r="I19" s="7" t="s">
-        <v>243</v>
       </c>
       <c r="J19" s="3">
         <v>50</v>
@@ -7104,7 +7100,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -7112,16 +7108,16 @@
         <v>120</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="G20" s="7">
         <v>100</v>
@@ -7132,16 +7128,16 @@
         <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="C21" s="7" t="s">
+        <v>244</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>246</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>248</v>
       </c>
       <c r="G21" s="7">
         <v>20</v>
@@ -7152,16 +7148,16 @@
         <v>112</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="G22" s="7">
         <v>30</v>
@@ -7237,10 +7233,10 @@
         <v>104</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="G1" s="7" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="15.75" x14ac:dyDescent="0.4">
@@ -7248,22 +7244,22 @@
         <v>173</v>
       </c>
       <c r="B2" s="38" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C2" s="38" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="D2" s="38" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="E2" s="38" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G2" s="38" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.4">
@@ -7271,11 +7267,11 @@
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>266</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>268</v>
-      </c>
       <c r="D3" s="7">
         <v>1</v>
       </c>
@@ -7283,7 +7279,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="G3" s="7">
         <v>1000</v>
@@ -7294,19 +7290,19 @@
         <v>1002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>266</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>268</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>270</v>
       </c>
       <c r="G4" s="9">
         <v>100</v>
@@ -7359,13 +7355,13 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A2" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>222</v>
+      </c>
+      <c r="C2" s="37" t="s">
         <v>223</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -7389,7 +7385,7 @@
         <v>202</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
   </sheetData>
@@ -7431,10 +7427,10 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A2" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>223</v>
-      </c>
-      <c r="B2" s="37" t="s">
-        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -7495,7 +7491,7 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A1" s="6" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B1" s="9" t="s">
         <v>82</v>
@@ -7506,13 +7502,13 @@
     </row>
     <row r="2" spans="1:3" ht="15.75" x14ac:dyDescent="0.4">
       <c r="A2" s="37" t="s">
+        <v>221</v>
+      </c>
+      <c r="B2" s="37" t="s">
         <v>223</v>
       </c>
-      <c r="B2" s="37" t="s">
-        <v>225</v>
-      </c>
       <c r="C2" s="37" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.4">
@@ -7523,7 +7519,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -7534,7 +7530,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -7542,7 +7538,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>84</v>
@@ -7553,7 +7549,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>85</v>
@@ -7567,7 +7563,7 @@
         <v>63</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -7575,10 +7571,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="C8" s="6" t="s">
         <v>254</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>256</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -7586,10 +7582,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
+        <v>253</v>
+      </c>
+      <c r="C9" s="6" t="s">
         <v>255</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>257</v>
       </c>
     </row>
   </sheetData>
@@ -7628,18 +7624,18 @@
         <v>106</v>
       </c>
       <c r="C1" s="29" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="37" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B2" s="37" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="C2" s="37" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="49.5" x14ac:dyDescent="0.4">
@@ -7731,7 +7727,7 @@
         <v>113</v>
       </c>
       <c r="C9" s="30" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="H9" s="30"/>
     </row>
@@ -7975,7 +7971,7 @@
     </row>
     <row r="66" spans="8:8" x14ac:dyDescent="0.4">
       <c r="H66" s="29" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="68" spans="8:8" x14ac:dyDescent="0.4">

--- a/tool/table/table/skill.xlsx
+++ b/tool/table/table/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodger\Documents\GitHub\lolita_son\lolita_son\tool\table\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98E88B80-7539-482F-851A-24554AC2E318}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BEF82E-258F-4C85-8409-C92E66B29ECC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2656,7 +2656,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH7" sqref="AH7"/>
+      <selection pane="bottomRight" activeCell="AJ21" sqref="AJ21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -2993,7 +2993,7 @@
         <v>261</v>
       </c>
       <c r="AG3" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH3" s="13"/>
       <c r="AI3" s="28" t="s">
@@ -3068,7 +3068,7 @@
         <v>261</v>
       </c>
       <c r="AG4" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH4" s="13"/>
       <c r="AI4" s="28" t="s">
@@ -3143,7 +3143,7 @@
         <v>261</v>
       </c>
       <c r="AG5" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH5" s="13"/>
       <c r="AI5" s="28" t="s">
@@ -3218,7 +3218,7 @@
         <v>261</v>
       </c>
       <c r="AG6" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH6" s="13"/>
       <c r="AI6" s="28" t="s">
@@ -3293,7 +3293,7 @@
         <v>261</v>
       </c>
       <c r="AG7" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH7" s="13"/>
       <c r="AI7" s="28" t="s">
@@ -3368,7 +3368,7 @@
         <v>261</v>
       </c>
       <c r="AG8" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH8" s="13"/>
       <c r="AI8" s="28" t="s">
@@ -3443,7 +3443,7 @@
         <v>261</v>
       </c>
       <c r="AG9" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH9" s="13"/>
       <c r="AI9" s="28" t="s">
@@ -3518,7 +3518,7 @@
         <v>261</v>
       </c>
       <c r="AG10" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH10" s="13"/>
       <c r="AI10" s="28" t="s">
@@ -3593,7 +3593,7 @@
         <v>261</v>
       </c>
       <c r="AG11" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH11" s="13"/>
       <c r="AI11" s="28" t="s">
@@ -3668,7 +3668,7 @@
         <v>261</v>
       </c>
       <c r="AG12" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH12" s="13"/>
       <c r="AI12" s="28" t="s">
@@ -3743,7 +3743,7 @@
         <v>261</v>
       </c>
       <c r="AG13" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH13" s="13"/>
       <c r="AI13" s="28" t="s">
@@ -3818,7 +3818,7 @@
         <v>261</v>
       </c>
       <c r="AG14" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH14" s="13"/>
       <c r="AI14" s="28" t="s">
@@ -3893,7 +3893,7 @@
         <v>261</v>
       </c>
       <c r="AG15" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH15" s="13"/>
       <c r="AI15" s="28" t="s">
@@ -3968,7 +3968,7 @@
         <v>261</v>
       </c>
       <c r="AG16" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH16" s="13"/>
       <c r="AI16" s="28" t="s">
@@ -4043,7 +4043,7 @@
         <v>261</v>
       </c>
       <c r="AG17" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH17" s="13"/>
       <c r="AI17" s="28" t="s">
@@ -4118,7 +4118,7 @@
         <v>261</v>
       </c>
       <c r="AG18" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH18" s="13"/>
       <c r="AI18" s="28" t="s">
@@ -4193,7 +4193,7 @@
         <v>261</v>
       </c>
       <c r="AG19" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH19" s="13"/>
       <c r="AI19" s="28" t="s">
@@ -4268,7 +4268,7 @@
         <v>261</v>
       </c>
       <c r="AG20" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH20" s="13"/>
       <c r="AI20" s="28" t="s">
@@ -4343,7 +4343,7 @@
         <v>261</v>
       </c>
       <c r="AG21" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH21" s="13"/>
       <c r="AI21" s="28" t="s">
@@ -4418,7 +4418,7 @@
         <v>261</v>
       </c>
       <c r="AG22" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH22" s="13"/>
       <c r="AI22" s="28" t="s">
@@ -4493,7 +4493,7 @@
         <v>261</v>
       </c>
       <c r="AG23" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH23" s="13"/>
       <c r="AI23" s="28" t="s">
@@ -4568,7 +4568,7 @@
         <v>261</v>
       </c>
       <c r="AG24" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH24" s="13"/>
       <c r="AI24" s="28" t="s">
@@ -4643,7 +4643,7 @@
         <v>261</v>
       </c>
       <c r="AG25" s="2">
-        <v>60</v>
+        <v>100</v>
       </c>
       <c r="AH25" s="13"/>
       <c r="AI25" s="28" t="s">

--- a/tool/table/table/skill.xlsx
+++ b/tool/table/table/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodger\Documents\GitHub\lolita_son\lolita_son\tool\table\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79BEF82E-258F-4C85-8409-C92E66B29ECC}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7019DE3-8AE9-45D5-93E2-2B8D8A62F4AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="275">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="274">
   <si>
     <t>buff和效果规则</t>
   </si>
@@ -1397,10 +1397,6 @@
   </si>
   <si>
     <t>data#32[lv@int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>伤害</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2653,10 +2649,10 @@
   <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AE2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AJ21" sqref="AJ21"/>
+      <selection pane="bottomRight" activeCell="AA4" sqref="AA4:AA49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -2893,13 +2889,13 @@
         <v>204</v>
       </c>
       <c r="AC2" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="AD2" s="35" t="s">
         <v>197</v>
       </c>
       <c r="AE2" s="32" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="AF2" s="32" t="s">
         <v>198</v>
@@ -2908,7 +2904,7 @@
         <v>199</v>
       </c>
       <c r="AH2" s="32" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="AI2" s="36" t="s">
         <v>200</v>
@@ -2925,7 +2921,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D3" s="13">
         <v>167</v>
@@ -2972,10 +2968,10 @@
         <v>100</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA3" s="13" t="s">
-        <v>231</v>
+        <v>110</v>
       </c>
       <c r="AB3" s="13">
         <v>100</v>
@@ -2984,20 +2980,20 @@
         <v>1</v>
       </c>
       <c r="AD3" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE3" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF3" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF3" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG3" s="2">
         <v>100</v>
       </c>
       <c r="AH3" s="13"/>
       <c r="AI3" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ3" s="2">
         <v>3</v>
@@ -3047,10 +3043,10 @@
         <v>100</v>
       </c>
       <c r="Z4" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA4" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB4" s="13">
         <v>100</v>
@@ -3059,20 +3055,20 @@
         <v>1</v>
       </c>
       <c r="AD4" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE4" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF4" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF4" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG4" s="2">
         <v>100</v>
       </c>
       <c r="AH4" s="13"/>
       <c r="AI4" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ4" s="2">
         <v>3</v>
@@ -3122,10 +3118,10 @@
         <v>100</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA5" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB5" s="13">
         <v>100</v>
@@ -3134,20 +3130,20 @@
         <v>1</v>
       </c>
       <c r="AD5" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE5" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF5" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF5" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG5" s="2">
         <v>100</v>
       </c>
       <c r="AH5" s="13"/>
       <c r="AI5" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ5" s="2">
         <v>3</v>
@@ -3197,10 +3193,10 @@
         <v>100</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA6" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB6" s="13">
         <v>100</v>
@@ -3209,20 +3205,20 @@
         <v>1</v>
       </c>
       <c r="AD6" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE6" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF6" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF6" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG6" s="2">
         <v>100</v>
       </c>
       <c r="AH6" s="13"/>
       <c r="AI6" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ6" s="2">
         <v>3</v>
@@ -3272,10 +3268,10 @@
         <v>100</v>
       </c>
       <c r="Z7" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA7" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB7" s="13">
         <v>100</v>
@@ -3284,20 +3280,20 @@
         <v>1</v>
       </c>
       <c r="AD7" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE7" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF7" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF7" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG7" s="2">
         <v>100</v>
       </c>
       <c r="AH7" s="13"/>
       <c r="AI7" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ7" s="2">
         <v>3</v>
@@ -3347,10 +3343,10 @@
         <v>100</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA8" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB8" s="13">
         <v>100</v>
@@ -3359,20 +3355,20 @@
         <v>1</v>
       </c>
       <c r="AD8" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE8" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF8" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF8" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG8" s="2">
         <v>100</v>
       </c>
       <c r="AH8" s="13"/>
       <c r="AI8" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ8" s="2">
         <v>3</v>
@@ -3422,10 +3418,10 @@
         <v>100</v>
       </c>
       <c r="Z9" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA9" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB9" s="13">
         <v>100</v>
@@ -3434,20 +3430,20 @@
         <v>1</v>
       </c>
       <c r="AD9" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE9" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF9" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF9" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG9" s="2">
         <v>100</v>
       </c>
       <c r="AH9" s="13"/>
       <c r="AI9" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ9" s="2">
         <v>3</v>
@@ -3497,10 +3493,10 @@
         <v>100</v>
       </c>
       <c r="Z10" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA10" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB10" s="13">
         <v>100</v>
@@ -3509,20 +3505,20 @@
         <v>1</v>
       </c>
       <c r="AD10" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE10" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF10" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF10" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG10" s="2">
         <v>100</v>
       </c>
       <c r="AH10" s="13"/>
       <c r="AI10" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ10" s="2">
         <v>3</v>
@@ -3572,10 +3568,10 @@
         <v>100</v>
       </c>
       <c r="Z11" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA11" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB11" s="13">
         <v>100</v>
@@ -3584,20 +3580,20 @@
         <v>1</v>
       </c>
       <c r="AD11" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE11" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF11" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF11" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG11" s="2">
         <v>100</v>
       </c>
       <c r="AH11" s="13"/>
       <c r="AI11" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ11" s="2">
         <v>3</v>
@@ -3647,10 +3643,10 @@
         <v>100</v>
       </c>
       <c r="Z12" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA12" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB12" s="13">
         <v>100</v>
@@ -3659,20 +3655,20 @@
         <v>1</v>
       </c>
       <c r="AD12" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE12" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF12" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF12" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG12" s="2">
         <v>100</v>
       </c>
       <c r="AH12" s="13"/>
       <c r="AI12" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ12" s="2">
         <v>3</v>
@@ -3722,10 +3718,10 @@
         <v>100</v>
       </c>
       <c r="Z13" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA13" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB13" s="13">
         <v>100</v>
@@ -3734,20 +3730,20 @@
         <v>1</v>
       </c>
       <c r="AD13" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE13" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF13" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF13" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG13" s="2">
         <v>100</v>
       </c>
       <c r="AH13" s="13"/>
       <c r="AI13" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ13" s="2">
         <v>3</v>
@@ -3797,10 +3793,10 @@
         <v>100</v>
       </c>
       <c r="Z14" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA14" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB14" s="13">
         <v>100</v>
@@ -3809,20 +3805,20 @@
         <v>1</v>
       </c>
       <c r="AD14" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE14" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF14" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF14" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG14" s="2">
         <v>100</v>
       </c>
       <c r="AH14" s="13"/>
       <c r="AI14" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ14" s="2">
         <v>3</v>
@@ -3872,10 +3868,10 @@
         <v>100</v>
       </c>
       <c r="Z15" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA15" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB15" s="13">
         <v>100</v>
@@ -3884,20 +3880,20 @@
         <v>1</v>
       </c>
       <c r="AD15" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE15" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF15" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF15" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG15" s="2">
         <v>100</v>
       </c>
       <c r="AH15" s="13"/>
       <c r="AI15" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ15" s="2">
         <v>3</v>
@@ -3947,10 +3943,10 @@
         <v>100</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA16" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB16" s="13">
         <v>100</v>
@@ -3959,20 +3955,20 @@
         <v>1</v>
       </c>
       <c r="AD16" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE16" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF16" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF16" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG16" s="2">
         <v>100</v>
       </c>
       <c r="AH16" s="13"/>
       <c r="AI16" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ16" s="2">
         <v>3</v>
@@ -4022,10 +4018,10 @@
         <v>100</v>
       </c>
       <c r="Z17" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA17" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB17" s="13">
         <v>100</v>
@@ -4034,20 +4030,20 @@
         <v>1</v>
       </c>
       <c r="AD17" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE17" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF17" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF17" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG17" s="2">
         <v>100</v>
       </c>
       <c r="AH17" s="13"/>
       <c r="AI17" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ17" s="2">
         <v>3</v>
@@ -4097,10 +4093,10 @@
         <v>100</v>
       </c>
       <c r="Z18" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA18" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB18" s="13">
         <v>100</v>
@@ -4109,20 +4105,20 @@
         <v>1</v>
       </c>
       <c r="AD18" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE18" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF18" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF18" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG18" s="2">
         <v>100</v>
       </c>
       <c r="AH18" s="13"/>
       <c r="AI18" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ18" s="2">
         <v>3</v>
@@ -4172,10 +4168,10 @@
         <v>100</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA19" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB19" s="13">
         <v>100</v>
@@ -4184,20 +4180,20 @@
         <v>1</v>
       </c>
       <c r="AD19" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE19" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF19" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF19" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG19" s="2">
         <v>100</v>
       </c>
       <c r="AH19" s="13"/>
       <c r="AI19" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ19" s="2">
         <v>3</v>
@@ -4247,10 +4243,10 @@
         <v>100</v>
       </c>
       <c r="Z20" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA20" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB20" s="13">
         <v>100</v>
@@ -4259,20 +4255,20 @@
         <v>1</v>
       </c>
       <c r="AD20" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE20" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF20" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF20" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG20" s="2">
         <v>100</v>
       </c>
       <c r="AH20" s="13"/>
       <c r="AI20" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ20" s="2">
         <v>3</v>
@@ -4322,10 +4318,10 @@
         <v>100</v>
       </c>
       <c r="Z21" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA21" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB21" s="13">
         <v>100</v>
@@ -4334,20 +4330,20 @@
         <v>1</v>
       </c>
       <c r="AD21" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE21" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF21" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF21" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG21" s="2">
         <v>100</v>
       </c>
       <c r="AH21" s="13"/>
       <c r="AI21" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ21" s="2">
         <v>3</v>
@@ -4397,10 +4393,10 @@
         <v>100</v>
       </c>
       <c r="Z22" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA22" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB22" s="13">
         <v>100</v>
@@ -4409,20 +4405,20 @@
         <v>1</v>
       </c>
       <c r="AD22" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE22" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF22" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF22" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG22" s="2">
         <v>100</v>
       </c>
       <c r="AH22" s="13"/>
       <c r="AI22" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ22" s="2">
         <v>3</v>
@@ -4472,10 +4468,10 @@
         <v>100</v>
       </c>
       <c r="Z23" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA23" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB23" s="13">
         <v>100</v>
@@ -4484,20 +4480,20 @@
         <v>1</v>
       </c>
       <c r="AD23" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE23" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF23" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF23" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG23" s="2">
         <v>100</v>
       </c>
       <c r="AH23" s="13"/>
       <c r="AI23" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ23" s="2">
         <v>3</v>
@@ -4547,10 +4543,10 @@
         <v>100</v>
       </c>
       <c r="Z24" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA24" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB24" s="13">
         <v>100</v>
@@ -4559,20 +4555,20 @@
         <v>1</v>
       </c>
       <c r="AD24" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE24" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF24" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF24" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG24" s="2">
         <v>100</v>
       </c>
       <c r="AH24" s="13"/>
       <c r="AI24" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ24" s="2">
         <v>3</v>
@@ -4622,10 +4618,10 @@
         <v>100</v>
       </c>
       <c r="Z25" s="13" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="AA25" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AB25" s="13">
         <v>100</v>
@@ -4634,20 +4630,20 @@
         <v>1</v>
       </c>
       <c r="AD25" s="26" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AE25" s="13" t="s">
+        <v>259</v>
+      </c>
+      <c r="AF25" s="13" t="s">
         <v>260</v>
-      </c>
-      <c r="AF25" s="13" t="s">
-        <v>261</v>
       </c>
       <c r="AG25" s="2">
         <v>100</v>
       </c>
       <c r="AH25" s="13"/>
       <c r="AI25" s="28" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AJ25" s="2">
         <v>3</v>
@@ -4658,10 +4654,10 @@
         <v>1002</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D26" s="13">
         <v>177</v>
@@ -4707,24 +4703,24 @@
         <v>100</v>
       </c>
       <c r="Z26" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA26" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB26" s="13">
         <v>100</v>
       </c>
       <c r="AC26" s="13"/>
       <c r="AD26" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE26" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF26" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF26" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG26" s="2">
         <v>100</v>
       </c>
@@ -4732,7 +4728,7 @@
         <v>1</v>
       </c>
       <c r="AI26" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ26" s="2">
         <v>3</v>
@@ -4781,24 +4777,24 @@
         <v>100</v>
       </c>
       <c r="Z27" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA27" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB27" s="13">
         <v>100</v>
       </c>
       <c r="AC27" s="13"/>
       <c r="AD27" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE27" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF27" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF27" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG27" s="2">
         <v>100</v>
       </c>
@@ -4806,7 +4802,7 @@
         <v>1</v>
       </c>
       <c r="AI27" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ27" s="2">
         <v>3</v>
@@ -4855,24 +4851,24 @@
         <v>100</v>
       </c>
       <c r="Z28" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA28" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB28" s="13">
         <v>100</v>
       </c>
       <c r="AC28" s="13"/>
       <c r="AD28" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE28" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF28" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF28" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG28" s="2">
         <v>100</v>
       </c>
@@ -4880,7 +4876,7 @@
         <v>1</v>
       </c>
       <c r="AI28" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ28" s="2">
         <v>3</v>
@@ -4929,24 +4925,24 @@
         <v>100</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA29" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB29" s="13">
         <v>100</v>
       </c>
       <c r="AC29" s="13"/>
       <c r="AD29" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE29" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF29" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF29" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG29" s="2">
         <v>100</v>
       </c>
@@ -4954,7 +4950,7 @@
         <v>1</v>
       </c>
       <c r="AI29" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ29" s="2">
         <v>3</v>
@@ -5003,24 +4999,24 @@
         <v>100</v>
       </c>
       <c r="Z30" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA30" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB30" s="13">
         <v>100</v>
       </c>
       <c r="AC30" s="13"/>
       <c r="AD30" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE30" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF30" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF30" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG30" s="2">
         <v>100</v>
       </c>
@@ -5028,7 +5024,7 @@
         <v>1</v>
       </c>
       <c r="AI30" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ30" s="2">
         <v>3</v>
@@ -5077,24 +5073,24 @@
         <v>100</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA31" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB31" s="13">
         <v>100</v>
       </c>
       <c r="AC31" s="13"/>
       <c r="AD31" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE31" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF31" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF31" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG31" s="2">
         <v>100</v>
       </c>
@@ -5102,7 +5098,7 @@
         <v>1</v>
       </c>
       <c r="AI31" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ31" s="2">
         <v>3</v>
@@ -5151,24 +5147,24 @@
         <v>100</v>
       </c>
       <c r="Z32" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA32" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB32" s="13">
         <v>100</v>
       </c>
       <c r="AC32" s="13"/>
       <c r="AD32" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE32" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF32" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF32" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG32" s="2">
         <v>100</v>
       </c>
@@ -5176,7 +5172,7 @@
         <v>1</v>
       </c>
       <c r="AI32" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ32" s="2">
         <v>3</v>
@@ -5225,24 +5221,24 @@
         <v>100</v>
       </c>
       <c r="Z33" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA33" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB33" s="13">
         <v>100</v>
       </c>
       <c r="AC33" s="13"/>
       <c r="AD33" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE33" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF33" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF33" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG33" s="2">
         <v>100</v>
       </c>
@@ -5250,7 +5246,7 @@
         <v>1</v>
       </c>
       <c r="AI33" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ33" s="2">
         <v>3</v>
@@ -5299,24 +5295,24 @@
         <v>100</v>
       </c>
       <c r="Z34" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA34" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB34" s="13">
         <v>100</v>
       </c>
       <c r="AC34" s="13"/>
       <c r="AD34" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE34" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF34" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF34" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG34" s="2">
         <v>100</v>
       </c>
@@ -5324,7 +5320,7 @@
         <v>1</v>
       </c>
       <c r="AI34" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ34" s="2">
         <v>3</v>
@@ -5373,24 +5369,24 @@
         <v>100</v>
       </c>
       <c r="Z35" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA35" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB35" s="13">
         <v>100</v>
       </c>
       <c r="AC35" s="13"/>
       <c r="AD35" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE35" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF35" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF35" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG35" s="2">
         <v>100</v>
       </c>
@@ -5398,7 +5394,7 @@
         <v>1</v>
       </c>
       <c r="AI35" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ35" s="2">
         <v>3</v>
@@ -5447,24 +5443,24 @@
         <v>100</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA36" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB36" s="13">
         <v>100</v>
       </c>
       <c r="AC36" s="13"/>
       <c r="AD36" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE36" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF36" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF36" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG36" s="2">
         <v>100</v>
       </c>
@@ -5472,7 +5468,7 @@
         <v>1</v>
       </c>
       <c r="AI36" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ36" s="2">
         <v>3</v>
@@ -5521,24 +5517,24 @@
         <v>100</v>
       </c>
       <c r="Z37" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA37" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB37" s="13">
         <v>100</v>
       </c>
       <c r="AC37" s="13"/>
       <c r="AD37" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE37" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF37" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF37" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG37" s="2">
         <v>100</v>
       </c>
@@ -5546,7 +5542,7 @@
         <v>1</v>
       </c>
       <c r="AI37" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ37" s="2">
         <v>3</v>
@@ -5595,24 +5591,24 @@
         <v>100</v>
       </c>
       <c r="Z38" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA38" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB38" s="13">
         <v>100</v>
       </c>
       <c r="AC38" s="13"/>
       <c r="AD38" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE38" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF38" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF38" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG38" s="2">
         <v>100</v>
       </c>
@@ -5620,7 +5616,7 @@
         <v>1</v>
       </c>
       <c r="AI38" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ38" s="2">
         <v>3</v>
@@ -5669,24 +5665,24 @@
         <v>100</v>
       </c>
       <c r="Z39" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA39" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB39" s="13">
         <v>100</v>
       </c>
       <c r="AC39" s="13"/>
       <c r="AD39" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE39" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF39" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF39" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG39" s="2">
         <v>100</v>
       </c>
@@ -5694,7 +5690,7 @@
         <v>1</v>
       </c>
       <c r="AI39" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ39" s="2">
         <v>3</v>
@@ -5743,24 +5739,24 @@
         <v>100</v>
       </c>
       <c r="Z40" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA40" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB40" s="13">
         <v>100</v>
       </c>
       <c r="AC40" s="13"/>
       <c r="AD40" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE40" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF40" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF40" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG40" s="2">
         <v>100</v>
       </c>
@@ -5768,7 +5764,7 @@
         <v>1</v>
       </c>
       <c r="AI40" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ40" s="2">
         <v>3</v>
@@ -5817,24 +5813,24 @@
         <v>100</v>
       </c>
       <c r="Z41" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA41" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB41" s="13">
         <v>100</v>
       </c>
       <c r="AC41" s="13"/>
       <c r="AD41" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE41" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF41" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF41" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG41" s="2">
         <v>100</v>
       </c>
@@ -5842,7 +5838,7 @@
         <v>1</v>
       </c>
       <c r="AI41" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ41" s="2">
         <v>3</v>
@@ -5891,24 +5887,24 @@
         <v>100</v>
       </c>
       <c r="Z42" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA42" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB42" s="13">
         <v>100</v>
       </c>
       <c r="AC42" s="13"/>
       <c r="AD42" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE42" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF42" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF42" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG42" s="2">
         <v>100</v>
       </c>
@@ -5916,7 +5912,7 @@
         <v>1</v>
       </c>
       <c r="AI42" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ42" s="2">
         <v>3</v>
@@ -5965,24 +5961,24 @@
         <v>100</v>
       </c>
       <c r="Z43" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA43" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB43" s="13">
         <v>100</v>
       </c>
       <c r="AC43" s="13"/>
       <c r="AD43" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE43" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF43" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF43" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG43" s="2">
         <v>100</v>
       </c>
@@ -5990,7 +5986,7 @@
         <v>1</v>
       </c>
       <c r="AI43" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ43" s="2">
         <v>3</v>
@@ -6039,24 +6035,24 @@
         <v>100</v>
       </c>
       <c r="Z44" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA44" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB44" s="13">
         <v>100</v>
       </c>
       <c r="AC44" s="13"/>
       <c r="AD44" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE44" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF44" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF44" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG44" s="2">
         <v>100</v>
       </c>
@@ -6064,7 +6060,7 @@
         <v>1</v>
       </c>
       <c r="AI44" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ44" s="2">
         <v>3</v>
@@ -6113,24 +6109,24 @@
         <v>100</v>
       </c>
       <c r="Z45" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA45" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB45" s="13">
         <v>100</v>
       </c>
       <c r="AC45" s="13"/>
       <c r="AD45" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE45" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF45" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF45" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG45" s="2">
         <v>100</v>
       </c>
@@ -6138,7 +6134,7 @@
         <v>1</v>
       </c>
       <c r="AI45" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ45" s="2">
         <v>3</v>
@@ -6187,24 +6183,24 @@
         <v>100</v>
       </c>
       <c r="Z46" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA46" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB46" s="13">
         <v>100</v>
       </c>
       <c r="AC46" s="13"/>
       <c r="AD46" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE46" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF46" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF46" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG46" s="2">
         <v>100</v>
       </c>
@@ -6212,7 +6208,7 @@
         <v>1</v>
       </c>
       <c r="AI46" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ46" s="2">
         <v>3</v>
@@ -6261,24 +6257,24 @@
         <v>100</v>
       </c>
       <c r="Z47" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA47" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB47" s="13">
         <v>100</v>
       </c>
       <c r="AC47" s="13"/>
       <c r="AD47" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE47" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF47" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF47" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG47" s="2">
         <v>100</v>
       </c>
@@ -6286,7 +6282,7 @@
         <v>1</v>
       </c>
       <c r="AI47" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ47" s="2">
         <v>3</v>
@@ -6335,24 +6331,24 @@
         <v>100</v>
       </c>
       <c r="Z48" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA48" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB48" s="13">
         <v>100</v>
       </c>
       <c r="AC48" s="13"/>
       <c r="AD48" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE48" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF48" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF48" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG48" s="2">
         <v>100</v>
       </c>
@@ -6360,7 +6356,7 @@
         <v>1</v>
       </c>
       <c r="AI48" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ48" s="2">
         <v>3</v>
@@ -6409,24 +6405,24 @@
         <v>100</v>
       </c>
       <c r="Z49" s="13" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AA49" s="13" t="s">
-        <v>261</v>
+        <v>110</v>
       </c>
       <c r="AB49" s="13">
         <v>100</v>
       </c>
       <c r="AC49" s="13"/>
       <c r="AD49" s="26" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="AE49" s="13" t="s">
+        <v>261</v>
+      </c>
+      <c r="AF49" s="13" t="s">
         <v>262</v>
       </c>
-      <c r="AF49" s="13" t="s">
-        <v>263</v>
-      </c>
       <c r="AG49" s="2">
         <v>100</v>
       </c>
@@ -6434,7 +6430,7 @@
         <v>1</v>
       </c>
       <c r="AI49" s="28" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="AJ49" s="2">
         <v>3</v>
@@ -6657,10 +6653,10 @@
         <v>227</v>
       </c>
       <c r="E2" s="32" t="s">
+        <v>236</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>237</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>238</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>216</v>
@@ -6675,7 +6671,7 @@
         <v>208</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="L2" s="35" t="s">
         <v>197</v>
@@ -6696,7 +6692,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>64</v>
@@ -6750,7 +6746,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>64</v>
@@ -6811,7 +6807,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12" t="s">
@@ -6864,7 +6860,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
@@ -6920,13 +6916,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J13" s="3">
         <v>30</v>
@@ -6943,13 +6939,13 @@
         <v>2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J14" s="3">
         <v>30</v>
@@ -6973,14 +6969,14 @@
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J15" s="4">
         <v>30</v>
@@ -6999,14 +6995,14 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J16" s="4">
         <v>30</v>
@@ -7030,13 +7026,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J17" s="3">
         <v>30</v>
@@ -7053,7 +7049,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>27</v>
@@ -7073,25 +7069,25 @@
         <v>106</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>239</v>
       </c>
-      <c r="C19" s="7" t="s">
-        <v>240</v>
-      </c>
       <c r="E19" s="3">
         <v>1</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="G19" s="7">
         <v>20</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="J19" s="3">
         <v>50</v>
@@ -7100,7 +7096,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -7108,16 +7104,16 @@
         <v>120</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>242</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>244</v>
-      </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="G20" s="7">
         <v>100</v>
@@ -7128,16 +7124,16 @@
         <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>243</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>245</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>244</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>246</v>
       </c>
       <c r="G21" s="7">
         <v>20</v>
@@ -7148,16 +7144,16 @@
         <v>112</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G22" s="7">
         <v>30</v>
@@ -7256,7 +7252,7 @@
         <v>217</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>220</v>
@@ -7267,19 +7263,19 @@
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>265</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="G3" s="7">
         <v>1000</v>
@@ -7290,11 +7286,11 @@
         <v>1002</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>265</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>266</v>
-      </c>
       <c r="D4" s="9">
         <v>1</v>
       </c>
@@ -7302,7 +7298,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G4" s="9">
         <v>100</v>
@@ -7385,7 +7381,7 @@
         <v>202</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
   </sheetData>
@@ -7519,7 +7515,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -7530,7 +7526,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -7538,7 +7534,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>84</v>
@@ -7549,7 +7545,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>85</v>
@@ -7563,7 +7559,7 @@
         <v>63</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -7571,10 +7567,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -7582,10 +7578,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
   </sheetData>
@@ -7606,7 +7602,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78B48F20-45A7-4AB5-B31E-E221DFAF70D2}">
   <dimension ref="A1:L90"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A6" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/tool/table/table/skill.xlsx
+++ b/tool/table/table/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodger\Documents\GitHub\lolita_son\lolita_son\tool\table\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7019DE3-8AE9-45D5-93E2-2B8D8A62F4AD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD594EA-C185-4778-BC0D-71EB8B5FF373}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="负责人" sheetId="1" r:id="rId1"/>
@@ -299,7 +299,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="274">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="643" uniqueCount="272">
   <si>
     <t>buff和效果规则</t>
   </si>
@@ -1551,15 +1551,7 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>伤害</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>持续加血</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
-    <t>恢复</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
@@ -2648,11 +2640,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="U2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="AC10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AA4" sqref="AA4:AA49"/>
+      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -2904,7 +2896,7 @@
         <v>199</v>
       </c>
       <c r="AH2" s="32" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="AI2" s="36" t="s">
         <v>200</v>
@@ -2980,20 +2972,20 @@
         <v>1</v>
       </c>
       <c r="AD3" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE3" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF3" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG3" s="2">
         <v>100</v>
       </c>
       <c r="AH3" s="13"/>
       <c r="AI3" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ3" s="2">
         <v>3</v>
@@ -3055,20 +3047,20 @@
         <v>1</v>
       </c>
       <c r="AD4" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE4" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG4" s="2">
         <v>100</v>
       </c>
       <c r="AH4" s="13"/>
       <c r="AI4" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ4" s="2">
         <v>3</v>
@@ -3130,20 +3122,20 @@
         <v>1</v>
       </c>
       <c r="AD5" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE5" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG5" s="2">
         <v>100</v>
       </c>
       <c r="AH5" s="13"/>
       <c r="AI5" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ5" s="2">
         <v>3</v>
@@ -3205,20 +3197,20 @@
         <v>1</v>
       </c>
       <c r="AD6" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE6" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF6" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG6" s="2">
         <v>100</v>
       </c>
       <c r="AH6" s="13"/>
       <c r="AI6" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ6" s="2">
         <v>3</v>
@@ -3280,20 +3272,20 @@
         <v>1</v>
       </c>
       <c r="AD7" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE7" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF7" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG7" s="2">
         <v>100</v>
       </c>
       <c r="AH7" s="13"/>
       <c r="AI7" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ7" s="2">
         <v>3</v>
@@ -3355,20 +3347,20 @@
         <v>1</v>
       </c>
       <c r="AD8" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE8" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG8" s="2">
         <v>100</v>
       </c>
       <c r="AH8" s="13"/>
       <c r="AI8" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ8" s="2">
         <v>3</v>
@@ -3430,20 +3422,20 @@
         <v>1</v>
       </c>
       <c r="AD9" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE9" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF9" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG9" s="2">
         <v>100</v>
       </c>
       <c r="AH9" s="13"/>
       <c r="AI9" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ9" s="2">
         <v>3</v>
@@ -3505,20 +3497,20 @@
         <v>1</v>
       </c>
       <c r="AD10" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE10" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF10" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG10" s="2">
         <v>100</v>
       </c>
       <c r="AH10" s="13"/>
       <c r="AI10" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ10" s="2">
         <v>3</v>
@@ -3580,20 +3572,20 @@
         <v>1</v>
       </c>
       <c r="AD11" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE11" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF11" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG11" s="2">
         <v>100</v>
       </c>
       <c r="AH11" s="13"/>
       <c r="AI11" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ11" s="2">
         <v>3</v>
@@ -3655,20 +3647,20 @@
         <v>1</v>
       </c>
       <c r="AD12" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE12" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG12" s="2">
         <v>100</v>
       </c>
       <c r="AH12" s="13"/>
       <c r="AI12" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ12" s="2">
         <v>3</v>
@@ -3730,20 +3722,20 @@
         <v>1</v>
       </c>
       <c r="AD13" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE13" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF13" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG13" s="2">
         <v>100</v>
       </c>
       <c r="AH13" s="13"/>
       <c r="AI13" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ13" s="2">
         <v>3</v>
@@ -3805,20 +3797,20 @@
         <v>1</v>
       </c>
       <c r="AD14" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE14" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG14" s="2">
         <v>100</v>
       </c>
       <c r="AH14" s="13"/>
       <c r="AI14" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ14" s="2">
         <v>3</v>
@@ -3880,20 +3872,20 @@
         <v>1</v>
       </c>
       <c r="AD15" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE15" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF15" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG15" s="2">
         <v>100</v>
       </c>
       <c r="AH15" s="13"/>
       <c r="AI15" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ15" s="2">
         <v>3</v>
@@ -3955,20 +3947,20 @@
         <v>1</v>
       </c>
       <c r="AD16" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE16" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF16" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG16" s="2">
         <v>100</v>
       </c>
       <c r="AH16" s="13"/>
       <c r="AI16" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ16" s="2">
         <v>3</v>
@@ -4030,20 +4022,20 @@
         <v>1</v>
       </c>
       <c r="AD17" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE17" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF17" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG17" s="2">
         <v>100</v>
       </c>
       <c r="AH17" s="13"/>
       <c r="AI17" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ17" s="2">
         <v>3</v>
@@ -4105,20 +4097,20 @@
         <v>1</v>
       </c>
       <c r="AD18" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE18" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF18" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG18" s="2">
         <v>100</v>
       </c>
       <c r="AH18" s="13"/>
       <c r="AI18" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ18" s="2">
         <v>3</v>
@@ -4180,20 +4172,20 @@
         <v>1</v>
       </c>
       <c r="AD19" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE19" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF19" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG19" s="2">
         <v>100</v>
       </c>
       <c r="AH19" s="13"/>
       <c r="AI19" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ19" s="2">
         <v>3</v>
@@ -4255,20 +4247,20 @@
         <v>1</v>
       </c>
       <c r="AD20" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE20" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF20" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG20" s="2">
         <v>100</v>
       </c>
       <c r="AH20" s="13"/>
       <c r="AI20" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ20" s="2">
         <v>3</v>
@@ -4330,20 +4322,20 @@
         <v>1</v>
       </c>
       <c r="AD21" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE21" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF21" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG21" s="2">
         <v>100</v>
       </c>
       <c r="AH21" s="13"/>
       <c r="AI21" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ21" s="2">
         <v>3</v>
@@ -4405,20 +4397,20 @@
         <v>1</v>
       </c>
       <c r="AD22" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE22" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF22" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG22" s="2">
         <v>100</v>
       </c>
       <c r="AH22" s="13"/>
       <c r="AI22" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ22" s="2">
         <v>3</v>
@@ -4480,20 +4472,20 @@
         <v>1</v>
       </c>
       <c r="AD23" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE23" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF23" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG23" s="2">
         <v>100</v>
       </c>
       <c r="AH23" s="13"/>
       <c r="AI23" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ23" s="2">
         <v>3</v>
@@ -4555,20 +4547,20 @@
         <v>1</v>
       </c>
       <c r="AD24" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE24" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG24" s="2">
         <v>100</v>
       </c>
       <c r="AH24" s="13"/>
       <c r="AI24" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ24" s="2">
         <v>3</v>
@@ -4630,20 +4622,20 @@
         <v>1</v>
       </c>
       <c r="AD25" s="26" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AE25" s="13" t="s">
         <v>259</v>
       </c>
       <c r="AF25" s="13" t="s">
-        <v>260</v>
+        <v>110</v>
       </c>
       <c r="AG25" s="2">
         <v>100</v>
       </c>
       <c r="AH25" s="13"/>
       <c r="AI25" s="28" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="AJ25" s="2">
         <v>3</v>
@@ -4654,7 +4646,7 @@
         <v>1002</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>258</v>
@@ -4703,7 +4695,7 @@
         <v>100</v>
       </c>
       <c r="Z26" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA26" s="13" t="s">
         <v>110</v>
@@ -4713,13 +4705,13 @@
       </c>
       <c r="AC26" s="13"/>
       <c r="AD26" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE26" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF26" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG26" s="2">
         <v>100</v>
@@ -4728,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="AI26" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ26" s="2">
         <v>3</v>
@@ -4777,7 +4769,7 @@
         <v>100</v>
       </c>
       <c r="Z27" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA27" s="13" t="s">
         <v>110</v>
@@ -4787,13 +4779,13 @@
       </c>
       <c r="AC27" s="13"/>
       <c r="AD27" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE27" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF27" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG27" s="2">
         <v>100</v>
@@ -4802,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="AI27" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ27" s="2">
         <v>3</v>
@@ -4851,7 +4843,7 @@
         <v>100</v>
       </c>
       <c r="Z28" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA28" s="13" t="s">
         <v>110</v>
@@ -4861,13 +4853,13 @@
       </c>
       <c r="AC28" s="13"/>
       <c r="AD28" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE28" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF28" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG28" s="2">
         <v>100</v>
@@ -4876,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="AI28" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ28" s="2">
         <v>3</v>
@@ -4925,7 +4917,7 @@
         <v>100</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA29" s="13" t="s">
         <v>110</v>
@@ -4935,13 +4927,13 @@
       </c>
       <c r="AC29" s="13"/>
       <c r="AD29" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE29" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF29" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG29" s="2">
         <v>100</v>
@@ -4950,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="AI29" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ29" s="2">
         <v>3</v>
@@ -4999,7 +4991,7 @@
         <v>100</v>
       </c>
       <c r="Z30" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA30" s="13" t="s">
         <v>110</v>
@@ -5009,13 +5001,13 @@
       </c>
       <c r="AC30" s="13"/>
       <c r="AD30" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE30" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF30" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG30" s="2">
         <v>100</v>
@@ -5024,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="AI30" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ30" s="2">
         <v>3</v>
@@ -5073,7 +5065,7 @@
         <v>100</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA31" s="13" t="s">
         <v>110</v>
@@ -5083,13 +5075,13 @@
       </c>
       <c r="AC31" s="13"/>
       <c r="AD31" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE31" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF31" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG31" s="2">
         <v>100</v>
@@ -5098,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="AI31" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ31" s="2">
         <v>3</v>
@@ -5147,7 +5139,7 @@
         <v>100</v>
       </c>
       <c r="Z32" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA32" s="13" t="s">
         <v>110</v>
@@ -5157,13 +5149,13 @@
       </c>
       <c r="AC32" s="13"/>
       <c r="AD32" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE32" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF32" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG32" s="2">
         <v>100</v>
@@ -5172,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="AI32" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ32" s="2">
         <v>3</v>
@@ -5221,7 +5213,7 @@
         <v>100</v>
       </c>
       <c r="Z33" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA33" s="13" t="s">
         <v>110</v>
@@ -5231,13 +5223,13 @@
       </c>
       <c r="AC33" s="13"/>
       <c r="AD33" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE33" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF33" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG33" s="2">
         <v>100</v>
@@ -5246,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="AI33" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ33" s="2">
         <v>3</v>
@@ -5295,7 +5287,7 @@
         <v>100</v>
       </c>
       <c r="Z34" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA34" s="13" t="s">
         <v>110</v>
@@ -5305,13 +5297,13 @@
       </c>
       <c r="AC34" s="13"/>
       <c r="AD34" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE34" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF34" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG34" s="2">
         <v>100</v>
@@ -5320,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="AI34" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ34" s="2">
         <v>3</v>
@@ -5369,7 +5361,7 @@
         <v>100</v>
       </c>
       <c r="Z35" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA35" s="13" t="s">
         <v>110</v>
@@ -5379,13 +5371,13 @@
       </c>
       <c r="AC35" s="13"/>
       <c r="AD35" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE35" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF35" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG35" s="2">
         <v>100</v>
@@ -5394,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="AI35" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ35" s="2">
         <v>3</v>
@@ -5443,7 +5435,7 @@
         <v>100</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA36" s="13" t="s">
         <v>110</v>
@@ -5453,13 +5445,13 @@
       </c>
       <c r="AC36" s="13"/>
       <c r="AD36" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF36" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG36" s="2">
         <v>100</v>
@@ -5468,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="AI36" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ36" s="2">
         <v>3</v>
@@ -5517,7 +5509,7 @@
         <v>100</v>
       </c>
       <c r="Z37" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA37" s="13" t="s">
         <v>110</v>
@@ -5527,13 +5519,13 @@
       </c>
       <c r="AC37" s="13"/>
       <c r="AD37" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE37" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF37" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG37" s="2">
         <v>100</v>
@@ -5542,7 +5534,7 @@
         <v>1</v>
       </c>
       <c r="AI37" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ37" s="2">
         <v>3</v>
@@ -5591,7 +5583,7 @@
         <v>100</v>
       </c>
       <c r="Z38" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA38" s="13" t="s">
         <v>110</v>
@@ -5601,13 +5593,13 @@
       </c>
       <c r="AC38" s="13"/>
       <c r="AD38" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE38" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF38" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG38" s="2">
         <v>100</v>
@@ -5616,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="AI38" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ38" s="2">
         <v>3</v>
@@ -5665,7 +5657,7 @@
         <v>100</v>
       </c>
       <c r="Z39" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA39" s="13" t="s">
         <v>110</v>
@@ -5675,13 +5667,13 @@
       </c>
       <c r="AC39" s="13"/>
       <c r="AD39" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE39" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF39" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG39" s="2">
         <v>100</v>
@@ -5690,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="AI39" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ39" s="2">
         <v>3</v>
@@ -5739,7 +5731,7 @@
         <v>100</v>
       </c>
       <c r="Z40" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA40" s="13" t="s">
         <v>110</v>
@@ -5749,13 +5741,13 @@
       </c>
       <c r="AC40" s="13"/>
       <c r="AD40" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE40" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF40" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG40" s="2">
         <v>100</v>
@@ -5764,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="AI40" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ40" s="2">
         <v>3</v>
@@ -5813,7 +5805,7 @@
         <v>100</v>
       </c>
       <c r="Z41" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA41" s="13" t="s">
         <v>110</v>
@@ -5823,13 +5815,13 @@
       </c>
       <c r="AC41" s="13"/>
       <c r="AD41" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE41" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF41" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG41" s="2">
         <v>100</v>
@@ -5838,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="AI41" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ41" s="2">
         <v>3</v>
@@ -5887,7 +5879,7 @@
         <v>100</v>
       </c>
       <c r="Z42" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA42" s="13" t="s">
         <v>110</v>
@@ -5897,13 +5889,13 @@
       </c>
       <c r="AC42" s="13"/>
       <c r="AD42" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE42" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF42" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG42" s="2">
         <v>100</v>
@@ -5912,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="AI42" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ42" s="2">
         <v>3</v>
@@ -5961,7 +5953,7 @@
         <v>100</v>
       </c>
       <c r="Z43" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA43" s="13" t="s">
         <v>110</v>
@@ -5971,13 +5963,13 @@
       </c>
       <c r="AC43" s="13"/>
       <c r="AD43" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE43" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF43" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG43" s="2">
         <v>100</v>
@@ -5986,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AI43" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ43" s="2">
         <v>3</v>
@@ -6035,7 +6027,7 @@
         <v>100</v>
       </c>
       <c r="Z44" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA44" s="13" t="s">
         <v>110</v>
@@ -6045,13 +6037,13 @@
       </c>
       <c r="AC44" s="13"/>
       <c r="AD44" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE44" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF44" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG44" s="2">
         <v>100</v>
@@ -6060,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="AI44" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ44" s="2">
         <v>3</v>
@@ -6109,7 +6101,7 @@
         <v>100</v>
       </c>
       <c r="Z45" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA45" s="13" t="s">
         <v>110</v>
@@ -6119,13 +6111,13 @@
       </c>
       <c r="AC45" s="13"/>
       <c r="AD45" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE45" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF45" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG45" s="2">
         <v>100</v>
@@ -6134,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="AI45" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ45" s="2">
         <v>3</v>
@@ -6183,7 +6175,7 @@
         <v>100</v>
       </c>
       <c r="Z46" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA46" s="13" t="s">
         <v>110</v>
@@ -6193,13 +6185,13 @@
       </c>
       <c r="AC46" s="13"/>
       <c r="AD46" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE46" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF46" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG46" s="2">
         <v>100</v>
@@ -6208,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="AI46" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ46" s="2">
         <v>3</v>
@@ -6257,7 +6249,7 @@
         <v>100</v>
       </c>
       <c r="Z47" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA47" s="13" t="s">
         <v>110</v>
@@ -6267,13 +6259,13 @@
       </c>
       <c r="AC47" s="13"/>
       <c r="AD47" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE47" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF47" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG47" s="2">
         <v>100</v>
@@ -6282,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="AI47" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ47" s="2">
         <v>3</v>
@@ -6331,7 +6323,7 @@
         <v>100</v>
       </c>
       <c r="Z48" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA48" s="13" t="s">
         <v>110</v>
@@ -6341,13 +6333,13 @@
       </c>
       <c r="AC48" s="13"/>
       <c r="AD48" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE48" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF48" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG48" s="2">
         <v>100</v>
@@ -6356,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="AI48" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ48" s="2">
         <v>3</v>
@@ -6405,7 +6397,7 @@
         <v>100</v>
       </c>
       <c r="Z49" s="13" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="AA49" s="13" t="s">
         <v>110</v>
@@ -6415,13 +6407,13 @@
       </c>
       <c r="AC49" s="13"/>
       <c r="AD49" s="26" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="AE49" s="13" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="AF49" s="13" t="s">
-        <v>262</v>
+        <v>110</v>
       </c>
       <c r="AG49" s="2">
         <v>100</v>
@@ -6430,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="AI49" s="28" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="AJ49" s="2">
         <v>3</v>
@@ -6574,11 +6566,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="H20" sqref="H20"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -7087,7 +7079,7 @@
         <v>238</v>
       </c>
       <c r="I19" s="7" t="s">
-        <v>240</v>
+        <v>110</v>
       </c>
       <c r="J19" s="3">
         <v>50</v>
@@ -7263,11 +7255,11 @@
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C3" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="C3" s="7" t="s">
-        <v>265</v>
-      </c>
       <c r="D3" s="7">
         <v>1</v>
       </c>
@@ -7275,7 +7267,7 @@
         <v>3</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="G3" s="7">
         <v>1000</v>
@@ -7286,19 +7278,19 @@
         <v>1002</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>263</v>
+      </c>
+      <c r="D4" s="9">
+        <v>1</v>
+      </c>
+      <c r="E4" s="9">
+        <v>1</v>
+      </c>
+      <c r="F4" s="9" t="s">
         <v>265</v>
-      </c>
-      <c r="D4" s="9">
-        <v>1</v>
-      </c>
-      <c r="E4" s="9">
-        <v>1</v>
-      </c>
-      <c r="F4" s="9" t="s">
-        <v>267</v>
       </c>
       <c r="G4" s="9">
         <v>100</v>

--- a/tool/table/table/skill.xlsx
+++ b/tool/table/table/skill.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodger\Documents\GitHub\lolita_son\lolita_son\tool\table\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD594EA-C185-4778-BC0D-71EB8B5FF373}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1888BA-0F48-43E9-8210-8DA63EE45AC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="860" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="负责人" sheetId="1" r:id="rId1"/>
@@ -1404,10 +1404,6 @@
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
   <si>
-    <t>buffdata#6[buff@int</t>
-    <phoneticPr fontId="6" type="noConversion"/>
-  </si>
-  <si>
     <t>无</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
@@ -1596,6 +1592,10 @@
   </si>
   <si>
     <t>buffdst@int</t>
+    <phoneticPr fontId="6" type="noConversion"/>
+  </si>
+  <si>
+    <t>buffdata#6[buff@string</t>
     <phoneticPr fontId="6" type="noConversion"/>
   </si>
 </sst>
@@ -2640,11 +2640,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AJ49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AC10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="D46" sqref="D46"/>
+      <selection pane="bottomRight" activeCell="AE2" sqref="AE2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -2881,13 +2881,13 @@
         <v>204</v>
       </c>
       <c r="AC2" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AD2" s="35" t="s">
         <v>197</v>
       </c>
       <c r="AE2" s="32" t="s">
-        <v>232</v>
+        <v>271</v>
       </c>
       <c r="AF2" s="32" t="s">
         <v>198</v>
@@ -2896,7 +2896,7 @@
         <v>199</v>
       </c>
       <c r="AH2" s="32" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="AI2" s="36" t="s">
         <v>200</v>
@@ -2913,7 +2913,7 @@
         <v>51</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D3" s="13">
         <v>167</v>
@@ -2960,7 +2960,7 @@
         <v>100</v>
       </c>
       <c r="Z3" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA3" s="13" t="s">
         <v>110</v>
@@ -2972,10 +2972,10 @@
         <v>1</v>
       </c>
       <c r="AD3" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE3" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF3" s="13" t="s">
         <v>110</v>
@@ -2985,7 +2985,7 @@
       </c>
       <c r="AH3" s="13"/>
       <c r="AI3" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ3" s="2">
         <v>3</v>
@@ -3035,7 +3035,7 @@
         <v>100</v>
       </c>
       <c r="Z4" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA4" s="13" t="s">
         <v>110</v>
@@ -3047,10 +3047,10 @@
         <v>1</v>
       </c>
       <c r="AD4" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE4" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF4" s="13" t="s">
         <v>110</v>
@@ -3060,7 +3060,7 @@
       </c>
       <c r="AH4" s="13"/>
       <c r="AI4" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ4" s="2">
         <v>3</v>
@@ -3110,7 +3110,7 @@
         <v>100</v>
       </c>
       <c r="Z5" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA5" s="13" t="s">
         <v>110</v>
@@ -3122,10 +3122,10 @@
         <v>1</v>
       </c>
       <c r="AD5" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE5" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF5" s="13" t="s">
         <v>110</v>
@@ -3135,7 +3135,7 @@
       </c>
       <c r="AH5" s="13"/>
       <c r="AI5" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ5" s="2">
         <v>3</v>
@@ -3185,7 +3185,7 @@
         <v>100</v>
       </c>
       <c r="Z6" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA6" s="13" t="s">
         <v>110</v>
@@ -3197,10 +3197,10 @@
         <v>1</v>
       </c>
       <c r="AD6" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE6" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF6" s="13" t="s">
         <v>110</v>
@@ -3210,7 +3210,7 @@
       </c>
       <c r="AH6" s="13"/>
       <c r="AI6" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ6" s="2">
         <v>3</v>
@@ -3260,7 +3260,7 @@
         <v>100</v>
       </c>
       <c r="Z7" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA7" s="13" t="s">
         <v>110</v>
@@ -3272,10 +3272,10 @@
         <v>1</v>
       </c>
       <c r="AD7" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE7" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF7" s="13" t="s">
         <v>110</v>
@@ -3285,7 +3285,7 @@
       </c>
       <c r="AH7" s="13"/>
       <c r="AI7" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ7" s="2">
         <v>3</v>
@@ -3335,7 +3335,7 @@
         <v>100</v>
       </c>
       <c r="Z8" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA8" s="13" t="s">
         <v>110</v>
@@ -3347,10 +3347,10 @@
         <v>1</v>
       </c>
       <c r="AD8" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE8" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF8" s="13" t="s">
         <v>110</v>
@@ -3360,7 +3360,7 @@
       </c>
       <c r="AH8" s="13"/>
       <c r="AI8" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ8" s="2">
         <v>3</v>
@@ -3410,7 +3410,7 @@
         <v>100</v>
       </c>
       <c r="Z9" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA9" s="13" t="s">
         <v>110</v>
@@ -3422,10 +3422,10 @@
         <v>1</v>
       </c>
       <c r="AD9" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE9" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF9" s="13" t="s">
         <v>110</v>
@@ -3435,7 +3435,7 @@
       </c>
       <c r="AH9" s="13"/>
       <c r="AI9" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ9" s="2">
         <v>3</v>
@@ -3485,7 +3485,7 @@
         <v>100</v>
       </c>
       <c r="Z10" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA10" s="13" t="s">
         <v>110</v>
@@ -3497,10 +3497,10 @@
         <v>1</v>
       </c>
       <c r="AD10" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE10" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF10" s="13" t="s">
         <v>110</v>
@@ -3510,7 +3510,7 @@
       </c>
       <c r="AH10" s="13"/>
       <c r="AI10" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ10" s="2">
         <v>3</v>
@@ -3560,7 +3560,7 @@
         <v>100</v>
       </c>
       <c r="Z11" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA11" s="13" t="s">
         <v>110</v>
@@ -3572,10 +3572,10 @@
         <v>1</v>
       </c>
       <c r="AD11" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE11" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF11" s="13" t="s">
         <v>110</v>
@@ -3585,7 +3585,7 @@
       </c>
       <c r="AH11" s="13"/>
       <c r="AI11" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ11" s="2">
         <v>3</v>
@@ -3635,7 +3635,7 @@
         <v>100</v>
       </c>
       <c r="Z12" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA12" s="13" t="s">
         <v>110</v>
@@ -3647,10 +3647,10 @@
         <v>1</v>
       </c>
       <c r="AD12" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE12" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF12" s="13" t="s">
         <v>110</v>
@@ -3660,7 +3660,7 @@
       </c>
       <c r="AH12" s="13"/>
       <c r="AI12" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ12" s="2">
         <v>3</v>
@@ -3710,7 +3710,7 @@
         <v>100</v>
       </c>
       <c r="Z13" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA13" s="13" t="s">
         <v>110</v>
@@ -3722,10 +3722,10 @@
         <v>1</v>
       </c>
       <c r="AD13" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE13" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF13" s="13" t="s">
         <v>110</v>
@@ -3735,7 +3735,7 @@
       </c>
       <c r="AH13" s="13"/>
       <c r="AI13" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ13" s="2">
         <v>3</v>
@@ -3785,7 +3785,7 @@
         <v>100</v>
       </c>
       <c r="Z14" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA14" s="13" t="s">
         <v>110</v>
@@ -3797,10 +3797,10 @@
         <v>1</v>
       </c>
       <c r="AD14" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE14" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF14" s="13" t="s">
         <v>110</v>
@@ -3810,7 +3810,7 @@
       </c>
       <c r="AH14" s="13"/>
       <c r="AI14" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ14" s="2">
         <v>3</v>
@@ -3860,7 +3860,7 @@
         <v>100</v>
       </c>
       <c r="Z15" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA15" s="13" t="s">
         <v>110</v>
@@ -3872,10 +3872,10 @@
         <v>1</v>
       </c>
       <c r="AD15" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE15" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF15" s="13" t="s">
         <v>110</v>
@@ -3885,7 +3885,7 @@
       </c>
       <c r="AH15" s="13"/>
       <c r="AI15" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ15" s="2">
         <v>3</v>
@@ -3935,7 +3935,7 @@
         <v>100</v>
       </c>
       <c r="Z16" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA16" s="13" t="s">
         <v>110</v>
@@ -3947,10 +3947,10 @@
         <v>1</v>
       </c>
       <c r="AD16" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE16" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF16" s="13" t="s">
         <v>110</v>
@@ -3960,7 +3960,7 @@
       </c>
       <c r="AH16" s="13"/>
       <c r="AI16" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ16" s="2">
         <v>3</v>
@@ -4010,7 +4010,7 @@
         <v>100</v>
       </c>
       <c r="Z17" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA17" s="13" t="s">
         <v>110</v>
@@ -4022,10 +4022,10 @@
         <v>1</v>
       </c>
       <c r="AD17" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE17" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF17" s="13" t="s">
         <v>110</v>
@@ -4035,7 +4035,7 @@
       </c>
       <c r="AH17" s="13"/>
       <c r="AI17" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ17" s="2">
         <v>3</v>
@@ -4085,7 +4085,7 @@
         <v>100</v>
       </c>
       <c r="Z18" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA18" s="13" t="s">
         <v>110</v>
@@ -4097,10 +4097,10 @@
         <v>1</v>
       </c>
       <c r="AD18" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE18" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF18" s="13" t="s">
         <v>110</v>
@@ -4110,7 +4110,7 @@
       </c>
       <c r="AH18" s="13"/>
       <c r="AI18" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ18" s="2">
         <v>3</v>
@@ -4160,7 +4160,7 @@
         <v>100</v>
       </c>
       <c r="Z19" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA19" s="13" t="s">
         <v>110</v>
@@ -4172,10 +4172,10 @@
         <v>1</v>
       </c>
       <c r="AD19" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE19" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF19" s="13" t="s">
         <v>110</v>
@@ -4185,7 +4185,7 @@
       </c>
       <c r="AH19" s="13"/>
       <c r="AI19" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ19" s="2">
         <v>3</v>
@@ -4235,7 +4235,7 @@
         <v>100</v>
       </c>
       <c r="Z20" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA20" s="13" t="s">
         <v>110</v>
@@ -4247,10 +4247,10 @@
         <v>1</v>
       </c>
       <c r="AD20" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE20" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF20" s="13" t="s">
         <v>110</v>
@@ -4260,7 +4260,7 @@
       </c>
       <c r="AH20" s="13"/>
       <c r="AI20" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ20" s="2">
         <v>3</v>
@@ -4310,7 +4310,7 @@
         <v>100</v>
       </c>
       <c r="Z21" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA21" s="13" t="s">
         <v>110</v>
@@ -4322,10 +4322,10 @@
         <v>1</v>
       </c>
       <c r="AD21" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE21" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF21" s="13" t="s">
         <v>110</v>
@@ -4335,7 +4335,7 @@
       </c>
       <c r="AH21" s="13"/>
       <c r="AI21" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ21" s="2">
         <v>3</v>
@@ -4385,7 +4385,7 @@
         <v>100</v>
       </c>
       <c r="Z22" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA22" s="13" t="s">
         <v>110</v>
@@ -4397,10 +4397,10 @@
         <v>1</v>
       </c>
       <c r="AD22" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE22" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF22" s="13" t="s">
         <v>110</v>
@@ -4410,7 +4410,7 @@
       </c>
       <c r="AH22" s="13"/>
       <c r="AI22" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ22" s="2">
         <v>3</v>
@@ -4460,7 +4460,7 @@
         <v>100</v>
       </c>
       <c r="Z23" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA23" s="13" t="s">
         <v>110</v>
@@ -4472,10 +4472,10 @@
         <v>1</v>
       </c>
       <c r="AD23" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE23" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF23" s="13" t="s">
         <v>110</v>
@@ -4485,7 +4485,7 @@
       </c>
       <c r="AH23" s="13"/>
       <c r="AI23" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ23" s="2">
         <v>3</v>
@@ -4535,7 +4535,7 @@
         <v>100</v>
       </c>
       <c r="Z24" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA24" s="13" t="s">
         <v>110</v>
@@ -4547,10 +4547,10 @@
         <v>1</v>
       </c>
       <c r="AD24" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE24" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF24" s="13" t="s">
         <v>110</v>
@@ -4560,7 +4560,7 @@
       </c>
       <c r="AH24" s="13"/>
       <c r="AI24" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ24" s="2">
         <v>3</v>
@@ -4610,7 +4610,7 @@
         <v>100</v>
       </c>
       <c r="Z25" s="13" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="AA25" s="13" t="s">
         <v>110</v>
@@ -4622,10 +4622,10 @@
         <v>1</v>
       </c>
       <c r="AD25" s="26" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AE25" s="13" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="AF25" s="13" t="s">
         <v>110</v>
@@ -4635,7 +4635,7 @@
       </c>
       <c r="AH25" s="13"/>
       <c r="AI25" s="28" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="AJ25" s="2">
         <v>3</v>
@@ -4646,10 +4646,10 @@
         <v>1002</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D26" s="13">
         <v>177</v>
@@ -4695,7 +4695,7 @@
         <v>100</v>
       </c>
       <c r="Z26" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA26" s="13" t="s">
         <v>110</v>
@@ -4705,10 +4705,10 @@
       </c>
       <c r="AC26" s="13"/>
       <c r="AD26" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE26" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF26" s="13" t="s">
         <v>110</v>
@@ -4720,7 +4720,7 @@
         <v>1</v>
       </c>
       <c r="AI26" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ26" s="2">
         <v>3</v>
@@ -4769,7 +4769,7 @@
         <v>100</v>
       </c>
       <c r="Z27" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA27" s="13" t="s">
         <v>110</v>
@@ -4779,10 +4779,10 @@
       </c>
       <c r="AC27" s="13"/>
       <c r="AD27" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE27" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF27" s="13" t="s">
         <v>110</v>
@@ -4794,7 +4794,7 @@
         <v>1</v>
       </c>
       <c r="AI27" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ27" s="2">
         <v>3</v>
@@ -4843,7 +4843,7 @@
         <v>100</v>
       </c>
       <c r="Z28" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA28" s="13" t="s">
         <v>110</v>
@@ -4853,10 +4853,10 @@
       </c>
       <c r="AC28" s="13"/>
       <c r="AD28" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE28" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF28" s="13" t="s">
         <v>110</v>
@@ -4868,7 +4868,7 @@
         <v>1</v>
       </c>
       <c r="AI28" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ28" s="2">
         <v>3</v>
@@ -4917,7 +4917,7 @@
         <v>100</v>
       </c>
       <c r="Z29" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA29" s="13" t="s">
         <v>110</v>
@@ -4927,10 +4927,10 @@
       </c>
       <c r="AC29" s="13"/>
       <c r="AD29" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE29" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF29" s="13" t="s">
         <v>110</v>
@@ -4942,7 +4942,7 @@
         <v>1</v>
       </c>
       <c r="AI29" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ29" s="2">
         <v>3</v>
@@ -4991,7 +4991,7 @@
         <v>100</v>
       </c>
       <c r="Z30" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA30" s="13" t="s">
         <v>110</v>
@@ -5001,10 +5001,10 @@
       </c>
       <c r="AC30" s="13"/>
       <c r="AD30" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE30" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF30" s="13" t="s">
         <v>110</v>
@@ -5016,7 +5016,7 @@
         <v>1</v>
       </c>
       <c r="AI30" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ30" s="2">
         <v>3</v>
@@ -5065,7 +5065,7 @@
         <v>100</v>
       </c>
       <c r="Z31" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA31" s="13" t="s">
         <v>110</v>
@@ -5075,10 +5075,10 @@
       </c>
       <c r="AC31" s="13"/>
       <c r="AD31" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE31" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF31" s="13" t="s">
         <v>110</v>
@@ -5090,7 +5090,7 @@
         <v>1</v>
       </c>
       <c r="AI31" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ31" s="2">
         <v>3</v>
@@ -5139,7 +5139,7 @@
         <v>100</v>
       </c>
       <c r="Z32" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA32" s="13" t="s">
         <v>110</v>
@@ -5149,10 +5149,10 @@
       </c>
       <c r="AC32" s="13"/>
       <c r="AD32" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE32" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF32" s="13" t="s">
         <v>110</v>
@@ -5164,7 +5164,7 @@
         <v>1</v>
       </c>
       <c r="AI32" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ32" s="2">
         <v>3</v>
@@ -5213,7 +5213,7 @@
         <v>100</v>
       </c>
       <c r="Z33" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA33" s="13" t="s">
         <v>110</v>
@@ -5223,10 +5223,10 @@
       </c>
       <c r="AC33" s="13"/>
       <c r="AD33" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE33" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF33" s="13" t="s">
         <v>110</v>
@@ -5238,7 +5238,7 @@
         <v>1</v>
       </c>
       <c r="AI33" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ33" s="2">
         <v>3</v>
@@ -5287,7 +5287,7 @@
         <v>100</v>
       </c>
       <c r="Z34" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA34" s="13" t="s">
         <v>110</v>
@@ -5297,10 +5297,10 @@
       </c>
       <c r="AC34" s="13"/>
       <c r="AD34" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE34" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF34" s="13" t="s">
         <v>110</v>
@@ -5312,7 +5312,7 @@
         <v>1</v>
       </c>
       <c r="AI34" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ34" s="2">
         <v>3</v>
@@ -5361,7 +5361,7 @@
         <v>100</v>
       </c>
       <c r="Z35" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA35" s="13" t="s">
         <v>110</v>
@@ -5371,10 +5371,10 @@
       </c>
       <c r="AC35" s="13"/>
       <c r="AD35" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE35" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF35" s="13" t="s">
         <v>110</v>
@@ -5386,7 +5386,7 @@
         <v>1</v>
       </c>
       <c r="AI35" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ35" s="2">
         <v>3</v>
@@ -5435,7 +5435,7 @@
         <v>100</v>
       </c>
       <c r="Z36" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA36" s="13" t="s">
         <v>110</v>
@@ -5445,10 +5445,10 @@
       </c>
       <c r="AC36" s="13"/>
       <c r="AD36" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE36" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF36" s="13" t="s">
         <v>110</v>
@@ -5460,7 +5460,7 @@
         <v>1</v>
       </c>
       <c r="AI36" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ36" s="2">
         <v>3</v>
@@ -5509,7 +5509,7 @@
         <v>100</v>
       </c>
       <c r="Z37" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA37" s="13" t="s">
         <v>110</v>
@@ -5519,10 +5519,10 @@
       </c>
       <c r="AC37" s="13"/>
       <c r="AD37" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE37" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF37" s="13" t="s">
         <v>110</v>
@@ -5534,7 +5534,7 @@
         <v>1</v>
       </c>
       <c r="AI37" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ37" s="2">
         <v>3</v>
@@ -5583,7 +5583,7 @@
         <v>100</v>
       </c>
       <c r="Z38" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA38" s="13" t="s">
         <v>110</v>
@@ -5593,10 +5593,10 @@
       </c>
       <c r="AC38" s="13"/>
       <c r="AD38" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE38" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF38" s="13" t="s">
         <v>110</v>
@@ -5608,7 +5608,7 @@
         <v>1</v>
       </c>
       <c r="AI38" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ38" s="2">
         <v>3</v>
@@ -5657,7 +5657,7 @@
         <v>100</v>
       </c>
       <c r="Z39" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA39" s="13" t="s">
         <v>110</v>
@@ -5667,10 +5667,10 @@
       </c>
       <c r="AC39" s="13"/>
       <c r="AD39" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE39" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF39" s="13" t="s">
         <v>110</v>
@@ -5682,7 +5682,7 @@
         <v>1</v>
       </c>
       <c r="AI39" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ39" s="2">
         <v>3</v>
@@ -5731,7 +5731,7 @@
         <v>100</v>
       </c>
       <c r="Z40" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA40" s="13" t="s">
         <v>110</v>
@@ -5741,10 +5741,10 @@
       </c>
       <c r="AC40" s="13"/>
       <c r="AD40" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE40" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF40" s="13" t="s">
         <v>110</v>
@@ -5756,7 +5756,7 @@
         <v>1</v>
       </c>
       <c r="AI40" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ40" s="2">
         <v>3</v>
@@ -5805,7 +5805,7 @@
         <v>100</v>
       </c>
       <c r="Z41" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA41" s="13" t="s">
         <v>110</v>
@@ -5815,10 +5815,10 @@
       </c>
       <c r="AC41" s="13"/>
       <c r="AD41" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE41" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF41" s="13" t="s">
         <v>110</v>
@@ -5830,7 +5830,7 @@
         <v>1</v>
       </c>
       <c r="AI41" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ41" s="2">
         <v>3</v>
@@ -5879,7 +5879,7 @@
         <v>100</v>
       </c>
       <c r="Z42" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA42" s="13" t="s">
         <v>110</v>
@@ -5889,10 +5889,10 @@
       </c>
       <c r="AC42" s="13"/>
       <c r="AD42" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE42" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF42" s="13" t="s">
         <v>110</v>
@@ -5904,7 +5904,7 @@
         <v>1</v>
       </c>
       <c r="AI42" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ42" s="2">
         <v>3</v>
@@ -5953,7 +5953,7 @@
         <v>100</v>
       </c>
       <c r="Z43" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA43" s="13" t="s">
         <v>110</v>
@@ -5963,10 +5963,10 @@
       </c>
       <c r="AC43" s="13"/>
       <c r="AD43" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE43" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF43" s="13" t="s">
         <v>110</v>
@@ -5978,7 +5978,7 @@
         <v>1</v>
       </c>
       <c r="AI43" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ43" s="2">
         <v>3</v>
@@ -6027,7 +6027,7 @@
         <v>100</v>
       </c>
       <c r="Z44" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA44" s="13" t="s">
         <v>110</v>
@@ -6037,10 +6037,10 @@
       </c>
       <c r="AC44" s="13"/>
       <c r="AD44" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE44" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF44" s="13" t="s">
         <v>110</v>
@@ -6052,7 +6052,7 @@
         <v>1</v>
       </c>
       <c r="AI44" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ44" s="2">
         <v>3</v>
@@ -6101,7 +6101,7 @@
         <v>100</v>
       </c>
       <c r="Z45" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA45" s="13" t="s">
         <v>110</v>
@@ -6111,10 +6111,10 @@
       </c>
       <c r="AC45" s="13"/>
       <c r="AD45" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE45" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF45" s="13" t="s">
         <v>110</v>
@@ -6126,7 +6126,7 @@
         <v>1</v>
       </c>
       <c r="AI45" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ45" s="2">
         <v>3</v>
@@ -6175,7 +6175,7 @@
         <v>100</v>
       </c>
       <c r="Z46" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA46" s="13" t="s">
         <v>110</v>
@@ -6185,10 +6185,10 @@
       </c>
       <c r="AC46" s="13"/>
       <c r="AD46" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE46" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF46" s="13" t="s">
         <v>110</v>
@@ -6200,7 +6200,7 @@
         <v>1</v>
       </c>
       <c r="AI46" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ46" s="2">
         <v>3</v>
@@ -6249,7 +6249,7 @@
         <v>100</v>
       </c>
       <c r="Z47" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA47" s="13" t="s">
         <v>110</v>
@@ -6259,10 +6259,10 @@
       </c>
       <c r="AC47" s="13"/>
       <c r="AD47" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE47" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF47" s="13" t="s">
         <v>110</v>
@@ -6274,7 +6274,7 @@
         <v>1</v>
       </c>
       <c r="AI47" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ47" s="2">
         <v>3</v>
@@ -6323,7 +6323,7 @@
         <v>100</v>
       </c>
       <c r="Z48" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA48" s="13" t="s">
         <v>110</v>
@@ -6333,10 +6333,10 @@
       </c>
       <c r="AC48" s="13"/>
       <c r="AD48" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE48" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF48" s="13" t="s">
         <v>110</v>
@@ -6348,7 +6348,7 @@
         <v>1</v>
       </c>
       <c r="AI48" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ48" s="2">
         <v>3</v>
@@ -6397,7 +6397,7 @@
         <v>100</v>
       </c>
       <c r="Z49" s="13" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="AA49" s="13" t="s">
         <v>110</v>
@@ -6407,10 +6407,10 @@
       </c>
       <c r="AC49" s="13"/>
       <c r="AD49" s="26" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="AE49" s="13" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="AF49" s="13" t="s">
         <v>110</v>
@@ -6422,7 +6422,7 @@
         <v>1</v>
       </c>
       <c r="AI49" s="28" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="AJ49" s="2">
         <v>3</v>
@@ -6566,11 +6566,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="5" ySplit="1" topLeftCell="F4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -6645,10 +6645,10 @@
         <v>227</v>
       </c>
       <c r="E2" s="32" t="s">
+        <v>235</v>
+      </c>
+      <c r="F2" s="32" t="s">
         <v>236</v>
-      </c>
-      <c r="F2" s="32" t="s">
-        <v>237</v>
       </c>
       <c r="G2" s="32" t="s">
         <v>216</v>
@@ -6663,7 +6663,7 @@
         <v>208</v>
       </c>
       <c r="K2" s="32" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="L2" s="35" t="s">
         <v>197</v>
@@ -6684,7 +6684,7 @@
         <v>1</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H3" s="7" t="s">
         <v>64</v>
@@ -6738,7 +6738,7 @@
         <v>2</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H6" s="7" t="s">
         <v>64</v>
@@ -6799,7 +6799,7 @@
         <v>1</v>
       </c>
       <c r="F9" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G9" s="12"/>
       <c r="H9" s="12" t="s">
@@ -6852,7 +6852,7 @@
         <v>2</v>
       </c>
       <c r="F11" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G11" s="12"/>
       <c r="H11" s="12" t="s">
@@ -6908,13 +6908,13 @@
         <v>1</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H13" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I13" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J13" s="3">
         <v>30</v>
@@ -6931,13 +6931,13 @@
         <v>2</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H14" s="7" t="s">
         <v>25</v>
       </c>
       <c r="I14" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J14" s="3">
         <v>30</v>
@@ -6961,14 +6961,14 @@
         <v>1</v>
       </c>
       <c r="F15" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G15" s="12"/>
       <c r="H15" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I15" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J15" s="4">
         <v>30</v>
@@ -6987,14 +6987,14 @@
         <v>2</v>
       </c>
       <c r="F16" s="12" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="G16" s="12"/>
       <c r="H16" s="12" t="s">
         <v>26</v>
       </c>
       <c r="I16" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J16" s="4">
         <v>30</v>
@@ -7018,13 +7018,13 @@
         <v>1</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H17" s="7" t="s">
         <v>27</v>
       </c>
       <c r="I17" s="7" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="J17" s="3">
         <v>30</v>
@@ -7041,7 +7041,7 @@
         <v>2</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="H18" s="7" t="s">
         <v>27</v>
@@ -7061,10 +7061,10 @@
         <v>106</v>
       </c>
       <c r="B19" s="3" t="s">
+        <v>237</v>
+      </c>
+      <c r="C19" s="7" t="s">
         <v>238</v>
-      </c>
-      <c r="C19" s="7" t="s">
-        <v>239</v>
       </c>
       <c r="E19" s="3">
         <v>1</v>
@@ -7076,7 +7076,7 @@
         <v>20</v>
       </c>
       <c r="H19" s="7" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="I19" s="7" t="s">
         <v>110</v>
@@ -7088,7 +7088,7 @@
         <v>1</v>
       </c>
       <c r="L19" s="16" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="20" spans="1:12" x14ac:dyDescent="0.4">
@@ -7096,16 +7096,16 @@
         <v>120</v>
       </c>
       <c r="B20" s="3" t="s">
+        <v>241</v>
+      </c>
+      <c r="C20" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="C20" s="7" t="s">
-        <v>243</v>
-      </c>
       <c r="E20" s="3">
         <v>1</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="G20" s="7">
         <v>100</v>
@@ -7116,16 +7116,16 @@
         <v>119</v>
       </c>
       <c r="B21" s="3" t="s">
+        <v>243</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>242</v>
+      </c>
+      <c r="E21" s="3">
+        <v>1</v>
+      </c>
+      <c r="F21" s="7" t="s">
         <v>244</v>
-      </c>
-      <c r="C21" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="E21" s="3">
-        <v>1</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>245</v>
       </c>
       <c r="G21" s="7">
         <v>20</v>
@@ -7136,16 +7136,16 @@
         <v>112</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="E22" s="3">
         <v>1</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="G22" s="7">
         <v>30</v>
@@ -7244,7 +7244,7 @@
         <v>217</v>
       </c>
       <c r="F2" s="38" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="G2" s="38" t="s">
         <v>220</v>
@@ -7255,19 +7255,19 @@
         <v>1001</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="D3" s="7">
+        <v>1</v>
+      </c>
+      <c r="E3" s="7">
+        <v>3</v>
+      </c>
+      <c r="F3" s="7" t="s">
         <v>263</v>
-      </c>
-      <c r="D3" s="7">
-        <v>1</v>
-      </c>
-      <c r="E3" s="7">
-        <v>3</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>264</v>
       </c>
       <c r="G3" s="7">
         <v>1000</v>
@@ -7278,11 +7278,11 @@
         <v>1002</v>
       </c>
       <c r="B4" s="3" t="s">
+        <v>261</v>
+      </c>
+      <c r="C4" s="7" t="s">
         <v>262</v>
       </c>
-      <c r="C4" s="7" t="s">
-        <v>263</v>
-      </c>
       <c r="D4" s="9">
         <v>1</v>
       </c>
@@ -7290,7 +7290,7 @@
         <v>1</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="G4" s="9">
         <v>100</v>
@@ -7373,7 +7373,7 @@
         <v>202</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
   </sheetData>
@@ -7507,7 +7507,7 @@
         <v>61</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.4">
@@ -7518,7 +7518,7 @@
         <v>62</v>
       </c>
       <c r="C4" s="6" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.4">
@@ -7526,7 +7526,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C5" s="6" t="s">
         <v>84</v>
@@ -7537,7 +7537,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="10" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>85</v>
@@ -7551,7 +7551,7 @@
         <v>63</v>
       </c>
       <c r="C7" s="6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.4">
@@ -7559,10 +7559,10 @@
         <v>6</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C8" s="6" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.4">
@@ -7570,10 +7570,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" s="6" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/tool/table/table/skill.xlsx
+++ b/tool/table/table/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodger\Documents\GitHub\lolita_son\lolita_son\tool\table\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4F1888BA-0F48-43E9-8210-8DA63EE45AC7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BBFC38-1F70-412A-AA5A-153981A7839D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2644,7 +2644,7 @@
       <pane xSplit="4" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AE2" sqref="AE2"/>
+      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -2978,7 +2978,7 @@
         <v>258</v>
       </c>
       <c r="AF3" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG3" s="2">
         <v>100</v>
@@ -3053,7 +3053,7 @@
         <v>258</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG4" s="2">
         <v>100</v>
@@ -3128,7 +3128,7 @@
         <v>258</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG5" s="2">
         <v>100</v>
@@ -3203,7 +3203,7 @@
         <v>258</v>
       </c>
       <c r="AF6" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG6" s="2">
         <v>100</v>
@@ -3278,7 +3278,7 @@
         <v>258</v>
       </c>
       <c r="AF7" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG7" s="2">
         <v>100</v>
@@ -3353,7 +3353,7 @@
         <v>258</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG8" s="2">
         <v>100</v>
@@ -3428,7 +3428,7 @@
         <v>258</v>
       </c>
       <c r="AF9" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG9" s="2">
         <v>100</v>
@@ -3503,7 +3503,7 @@
         <v>258</v>
       </c>
       <c r="AF10" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG10" s="2">
         <v>100</v>
@@ -3578,7 +3578,7 @@
         <v>258</v>
       </c>
       <c r="AF11" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG11" s="2">
         <v>100</v>
@@ -3653,7 +3653,7 @@
         <v>258</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG12" s="2">
         <v>100</v>
@@ -3728,7 +3728,7 @@
         <v>258</v>
       </c>
       <c r="AF13" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG13" s="2">
         <v>100</v>
@@ -3803,7 +3803,7 @@
         <v>258</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG14" s="2">
         <v>100</v>
@@ -3878,7 +3878,7 @@
         <v>258</v>
       </c>
       <c r="AF15" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG15" s="2">
         <v>100</v>
@@ -3953,7 +3953,7 @@
         <v>258</v>
       </c>
       <c r="AF16" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG16" s="2">
         <v>100</v>
@@ -4028,7 +4028,7 @@
         <v>258</v>
       </c>
       <c r="AF17" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG17" s="2">
         <v>100</v>
@@ -4103,7 +4103,7 @@
         <v>258</v>
       </c>
       <c r="AF18" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG18" s="2">
         <v>100</v>
@@ -4178,7 +4178,7 @@
         <v>258</v>
       </c>
       <c r="AF19" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG19" s="2">
         <v>100</v>
@@ -4253,7 +4253,7 @@
         <v>258</v>
       </c>
       <c r="AF20" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG20" s="2">
         <v>100</v>
@@ -4328,7 +4328,7 @@
         <v>258</v>
       </c>
       <c r="AF21" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG21" s="2">
         <v>100</v>
@@ -4403,7 +4403,7 @@
         <v>258</v>
       </c>
       <c r="AF22" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG22" s="2">
         <v>100</v>
@@ -4478,7 +4478,7 @@
         <v>258</v>
       </c>
       <c r="AF23" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG23" s="2">
         <v>100</v>
@@ -4553,7 +4553,7 @@
         <v>258</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG24" s="2">
         <v>100</v>
@@ -4628,7 +4628,7 @@
         <v>258</v>
       </c>
       <c r="AF25" s="13" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="AG25" s="2">
         <v>100</v>

--- a/tool/table/table/skill.xlsx
+++ b/tool/table/table/skill.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rodger\Documents\GitHub\lolita_son\lolita_son\tool\table\table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76BBFC38-1F70-412A-AA5A-153981A7839D}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F1E5CCAD-50DE-420D-85A6-631F0E390C49}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" tabRatio="860" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2641,10 +2641,10 @@
   <dimension ref="A1:AJ49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="AC2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="AC3" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight"/>
       <selection pane="bottomLeft"/>
-      <selection pane="bottomRight" activeCell="AH13" sqref="AH13"/>
+      <selection pane="bottomRight" activeCell="AG13" sqref="AG13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.4"/>
@@ -2978,7 +2978,7 @@
         <v>258</v>
       </c>
       <c r="AF3" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG3" s="2">
         <v>100</v>
@@ -3053,7 +3053,7 @@
         <v>258</v>
       </c>
       <c r="AF4" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG4" s="2">
         <v>100</v>
@@ -3128,7 +3128,7 @@
         <v>258</v>
       </c>
       <c r="AF5" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG5" s="2">
         <v>100</v>
@@ -3203,7 +3203,7 @@
         <v>258</v>
       </c>
       <c r="AF6" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG6" s="2">
         <v>100</v>
@@ -3278,7 +3278,7 @@
         <v>258</v>
       </c>
       <c r="AF7" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG7" s="2">
         <v>100</v>
@@ -3353,7 +3353,7 @@
         <v>258</v>
       </c>
       <c r="AF8" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG8" s="2">
         <v>100</v>
@@ -3428,7 +3428,7 @@
         <v>258</v>
       </c>
       <c r="AF9" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG9" s="2">
         <v>100</v>
@@ -3503,7 +3503,7 @@
         <v>258</v>
       </c>
       <c r="AF10" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG10" s="2">
         <v>100</v>
@@ -3578,7 +3578,7 @@
         <v>258</v>
       </c>
       <c r="AF11" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG11" s="2">
         <v>100</v>
@@ -3653,7 +3653,7 @@
         <v>258</v>
       </c>
       <c r="AF12" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG12" s="2">
         <v>100</v>
@@ -3728,7 +3728,7 @@
         <v>258</v>
       </c>
       <c r="AF13" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG13" s="2">
         <v>100</v>
@@ -3803,7 +3803,7 @@
         <v>258</v>
       </c>
       <c r="AF14" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG14" s="2">
         <v>100</v>
@@ -3878,7 +3878,7 @@
         <v>258</v>
       </c>
       <c r="AF15" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG15" s="2">
         <v>100</v>
@@ -3953,7 +3953,7 @@
         <v>258</v>
       </c>
       <c r="AF16" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG16" s="2">
         <v>100</v>
@@ -4028,7 +4028,7 @@
         <v>258</v>
       </c>
       <c r="AF17" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG17" s="2">
         <v>100</v>
@@ -4103,7 +4103,7 @@
         <v>258</v>
       </c>
       <c r="AF18" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG18" s="2">
         <v>100</v>
@@ -4178,7 +4178,7 @@
         <v>258</v>
       </c>
       <c r="AF19" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG19" s="2">
         <v>100</v>
@@ -4253,7 +4253,7 @@
         <v>258</v>
       </c>
       <c r="AF20" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG20" s="2">
         <v>100</v>
@@ -4328,7 +4328,7 @@
         <v>258</v>
       </c>
       <c r="AF21" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG21" s="2">
         <v>100</v>
@@ -4403,7 +4403,7 @@
         <v>258</v>
       </c>
       <c r="AF22" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG22" s="2">
         <v>100</v>
@@ -4478,7 +4478,7 @@
         <v>258</v>
       </c>
       <c r="AF23" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG23" s="2">
         <v>100</v>
@@ -4553,7 +4553,7 @@
         <v>258</v>
       </c>
       <c r="AF24" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG24" s="2">
         <v>100</v>
@@ -4628,7 +4628,7 @@
         <v>258</v>
       </c>
       <c r="AF25" s="13" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="AG25" s="2">
         <v>100</v>
